--- a/excel/mul_adder.xlsx
+++ b/excel/mul_adder.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thouh\Desktop\npu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thouh\Desktop\npu\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA24D03-1BA1-45C3-AF53-49D4A7835554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5118FDB-0155-4372-AB09-248981919A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -168,7 +168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -181,7 +181,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -464,8 +463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AZ95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA80" sqref="AA80"/>
+    <sheetView tabSelected="1" topLeftCell="Y19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AH35" sqref="AH35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1266,76 +1265,76 @@
         <v>1</v>
       </c>
       <c r="AC11">
-        <f>AC7+AC10+1</f>
-        <v>1</v>
+        <f>AC7+AC10</f>
+        <v>0</v>
       </c>
       <c r="AD11">
-        <f>AD7+AD10+1</f>
-        <v>1</v>
+        <f>AD7+AD10</f>
+        <v>0</v>
       </c>
       <c r="AE11">
-        <f>AE7+1+AE10</f>
-        <v>2</v>
+        <f>AE7+AE10</f>
+        <v>1</v>
       </c>
       <c r="AF11">
-        <f t="shared" ref="AF11:AH11" si="1">AF7+1+AF10</f>
-        <v>11</v>
+        <f>AF7+AF10</f>
+        <v>10</v>
       </c>
       <c r="AG11">
+        <f>AG7+AG10</f>
+        <v>10</v>
+      </c>
+      <c r="AH11">
+        <f>AH7+AH10</f>
+        <v>18</v>
+      </c>
+      <c r="AI11">
+        <f>AI7+AI10</f>
+        <v>19</v>
+      </c>
+      <c r="AJ11">
+        <f>AJ7</f>
+        <v>36</v>
+      </c>
+      <c r="AK11">
+        <f>AK7</f>
+        <v>36</v>
+      </c>
+      <c r="AL11">
+        <f t="shared" ref="AL11:AT11" si="1">AL7</f>
+        <v>36</v>
+      </c>
+      <c r="AM11">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="AH11">
+        <v>36</v>
+      </c>
+      <c r="AN11">
         <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="AI11">
-        <f>AI7+1+AI10</f>
-        <v>20</v>
-      </c>
-      <c r="AJ11">
-        <f t="shared" ref="AJ11:AT11" si="2">AJ7+1</f>
-        <v>37</v>
-      </c>
-      <c r="AK11">
-        <f t="shared" si="2"/>
-        <v>37</v>
-      </c>
-      <c r="AL11">
-        <f t="shared" si="2"/>
-        <v>37</v>
-      </c>
-      <c r="AM11">
-        <f t="shared" si="2"/>
-        <v>37</v>
-      </c>
-      <c r="AN11">
-        <f t="shared" si="2"/>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AO11">
-        <f t="shared" si="2"/>
-        <v>28</v>
+        <f t="shared" si="1"/>
+        <v>27</v>
       </c>
       <c r="AP11">
-        <f t="shared" si="2"/>
-        <v>37</v>
+        <f t="shared" si="1"/>
+        <v>36</v>
       </c>
       <c r="AQ11">
-        <f t="shared" si="2"/>
-        <v>19</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="AR11">
-        <f t="shared" si="2"/>
-        <v>28</v>
+        <f t="shared" si="1"/>
+        <v>27</v>
       </c>
       <c r="AS11">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="AT11">
-        <f t="shared" si="2"/>
-        <v>19</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.45">
@@ -1537,88 +1536,88 @@
         <v>0</v>
       </c>
       <c r="Z14">
-        <f t="shared" ref="Z14" si="3">Z11-Z13*15</f>
+        <f t="shared" ref="Z14" si="2">Z11-Z13*15</f>
         <v>0</v>
       </c>
       <c r="AA14">
-        <f t="shared" ref="AA14" si="4">AA11-AA13*15</f>
+        <f t="shared" ref="AA14" si="3">AA11-AA13*15</f>
         <v>0</v>
       </c>
       <c r="AB14">
-        <f t="shared" ref="AB14" si="5">AB11-AB13*15</f>
+        <f t="shared" ref="AB14" si="4">AB11-AB13*15</f>
         <v>1</v>
       </c>
       <c r="AC14">
-        <f t="shared" ref="AC14:AD14" si="6">AC11-AC13*15</f>
-        <v>1</v>
+        <f t="shared" ref="AC14:AD14" si="5">AC11-AC13*15</f>
+        <v>0</v>
       </c>
       <c r="AD14">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="AE14">
         <f>AE11-AE13*15</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF14">
-        <f t="shared" ref="AF14:AT14" si="7">AF11-AF13*15</f>
-        <v>11</v>
+        <f t="shared" ref="AF14:AT14" si="6">AF11-AF13*15</f>
+        <v>10</v>
       </c>
       <c r="AG14">
-        <f t="shared" si="7"/>
-        <v>11</v>
+        <f t="shared" si="6"/>
+        <v>10</v>
       </c>
       <c r="AH14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AI14">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="AI14">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
       <c r="AJ14">
-        <f t="shared" si="7"/>
-        <v>7</v>
+        <f t="shared" si="6"/>
+        <v>6</v>
       </c>
       <c r="AK14">
-        <f t="shared" si="7"/>
-        <v>7</v>
+        <f t="shared" si="6"/>
+        <v>6</v>
       </c>
       <c r="AL14">
-        <f t="shared" si="7"/>
-        <v>7</v>
+        <f t="shared" si="6"/>
+        <v>6</v>
       </c>
       <c r="AM14">
-        <f t="shared" si="7"/>
-        <v>7</v>
+        <f t="shared" si="6"/>
+        <v>6</v>
       </c>
       <c r="AN14">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="AO14">
-        <f t="shared" si="7"/>
-        <v>13</v>
+        <f t="shared" si="6"/>
+        <v>12</v>
       </c>
       <c r="AP14">
-        <f t="shared" si="7"/>
-        <v>7</v>
+        <f t="shared" si="6"/>
+        <v>6</v>
       </c>
       <c r="AQ14">
-        <f t="shared" si="7"/>
-        <v>4</v>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
       <c r="AR14">
-        <f t="shared" si="7"/>
-        <v>13</v>
+        <f t="shared" si="6"/>
+        <v>12</v>
       </c>
       <c r="AS14">
-        <f t="shared" si="7"/>
-        <v>10</v>
+        <f t="shared" si="6"/>
+        <v>9</v>
       </c>
       <c r="AT14">
-        <f t="shared" si="7"/>
-        <v>4</v>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.45">
@@ -1770,7 +1769,7 @@
         <v>2</v>
       </c>
       <c r="AZ16">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:52" x14ac:dyDescent="0.45">
@@ -1814,88 +1813,88 @@
         <v>0</v>
       </c>
       <c r="Z17">
-        <f t="shared" ref="Z17:AB17" si="8">Z14-Z16*13</f>
+        <f>Z14-Z16*12</f>
         <v>0</v>
       </c>
       <c r="AA17">
-        <f t="shared" si="8"/>
+        <f>AA14-AA16*12</f>
         <v>0</v>
       </c>
       <c r="AB17">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="AB17:AT17" si="7">AB14-AB16*12</f>
         <v>1</v>
       </c>
       <c r="AC17">
-        <f>AC14-AC16*13</f>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="AD17">
-        <f t="shared" ref="AD17:AE17" si="9">AD14-AD16*13</f>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="AE17">
-        <f t="shared" si="9"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="AF17">
-        <f t="shared" ref="AF17" si="10">AF14-AF16*13</f>
-        <v>11</v>
+        <f t="shared" si="7"/>
+        <v>10</v>
       </c>
       <c r="AG17">
-        <f t="shared" ref="AG17" si="11">AG14-AG16*13</f>
-        <v>11</v>
+        <f t="shared" si="7"/>
+        <v>10</v>
       </c>
       <c r="AH17">
-        <f t="shared" ref="AH17" si="12">AH14-AH16*13</f>
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AI17">
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="AI17">
-        <f t="shared" ref="AI17" si="13">AI14-AI16*13</f>
-        <v>5</v>
-      </c>
       <c r="AJ17">
-        <f t="shared" ref="AJ17" si="14">AJ14-AJ16*13</f>
-        <v>7</v>
+        <f t="shared" si="7"/>
+        <v>6</v>
       </c>
       <c r="AK17">
-        <f t="shared" ref="AK17" si="15">AK14-AK16*13</f>
-        <v>7</v>
+        <f t="shared" si="7"/>
+        <v>6</v>
       </c>
       <c r="AL17">
-        <f t="shared" ref="AL17" si="16">AL14-AL16*13</f>
-        <v>7</v>
+        <f t="shared" si="7"/>
+        <v>6</v>
       </c>
       <c r="AM17">
-        <f t="shared" ref="AM17" si="17">AM14-AM16*13</f>
-        <v>7</v>
+        <f t="shared" si="7"/>
+        <v>6</v>
       </c>
       <c r="AN17">
-        <f t="shared" ref="AN17" si="18">AN14-AN16*13</f>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="AO17">
-        <f t="shared" ref="AO17" si="19">AO14-AO16*13</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AP17">
-        <f t="shared" ref="AP17" si="20">AP14-AP16*13</f>
-        <v>7</v>
+        <f t="shared" si="7"/>
+        <v>6</v>
       </c>
       <c r="AQ17">
-        <f t="shared" ref="AQ17" si="21">AQ14-AQ16*13</f>
-        <v>4</v>
+        <f t="shared" si="7"/>
+        <v>3</v>
       </c>
       <c r="AR17">
-        <f t="shared" ref="AR17" si="22">AR14-AR16*13</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AS17">
-        <f t="shared" ref="AS17" si="23">AS14-AS16*13</f>
-        <v>10</v>
+        <f t="shared" si="7"/>
+        <v>9</v>
       </c>
       <c r="AT17">
-        <f t="shared" ref="AT17" si="24">AT14-AT16*13</f>
-        <v>4</v>
+        <f t="shared" si="7"/>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:52" x14ac:dyDescent="0.45">
@@ -2047,7 +2046,7 @@
         <v>2</v>
       </c>
       <c r="AZ19">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:52" x14ac:dyDescent="0.45">
@@ -2091,88 +2090,88 @@
         <v>0</v>
       </c>
       <c r="Z20">
-        <f>Z17-Z19*11</f>
+        <f>Z17-Z19*10</f>
         <v>0</v>
       </c>
       <c r="AA20">
-        <f t="shared" ref="AA20:AT20" si="25">AA17-AA19*11</f>
+        <f t="shared" ref="AA20:AT20" si="8">AA17-AA19*10</f>
         <v>0</v>
       </c>
       <c r="AB20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AC20">
-        <f t="shared" si="25"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="AD20">
-        <f t="shared" si="25"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="AE20">
-        <f t="shared" si="25"/>
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="AF20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AG20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AH20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AI20">
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="AI20">
-        <f t="shared" si="25"/>
-        <v>5</v>
-      </c>
       <c r="AJ20">
-        <f t="shared" si="25"/>
-        <v>7</v>
+        <f t="shared" si="8"/>
+        <v>6</v>
       </c>
       <c r="AK20">
-        <f t="shared" si="25"/>
-        <v>7</v>
+        <f t="shared" si="8"/>
+        <v>6</v>
       </c>
       <c r="AL20">
-        <f t="shared" si="25"/>
-        <v>7</v>
+        <f t="shared" si="8"/>
+        <v>6</v>
       </c>
       <c r="AM20">
-        <f t="shared" si="25"/>
-        <v>7</v>
+        <f t="shared" si="8"/>
+        <v>6</v>
       </c>
       <c r="AN20">
-        <f t="shared" si="25"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="AO20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AP20">
-        <f t="shared" si="25"/>
-        <v>7</v>
+        <f t="shared" si="8"/>
+        <v>6</v>
       </c>
       <c r="AQ20">
-        <f t="shared" si="25"/>
-        <v>4</v>
+        <f t="shared" si="8"/>
+        <v>3</v>
       </c>
       <c r="AR20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AS20">
-        <f t="shared" si="25"/>
-        <v>10</v>
+        <f t="shared" si="8"/>
+        <v>9</v>
       </c>
       <c r="AT20">
-        <f t="shared" si="25"/>
-        <v>4</v>
+        <f t="shared" si="8"/>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:52" x14ac:dyDescent="0.45">
@@ -2309,12 +2308,12 @@
         <v>1</v>
       </c>
       <c r="AZ22">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A23">
-        <f t="shared" ref="A23:A47" si="26">A22+1</f>
+        <f t="shared" ref="A23:A47" si="9">A22+1</f>
         <v>22</v>
       </c>
       <c r="I23" s="2"/>
@@ -2346,93 +2345,93 @@
       <c r="T23" s="2"/>
       <c r="V23" s="2"/>
       <c r="Z23">
-        <f>Z20-Z22*10</f>
+        <f>Z20-Z22*9</f>
         <v>0</v>
       </c>
       <c r="AA23">
-        <f t="shared" ref="AA23:AT23" si="27">AA20-AA22*10</f>
+        <f t="shared" ref="AA23:AT23" si="10">AA20-AA22*9</f>
         <v>0</v>
       </c>
       <c r="AB23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AC23">
-        <f t="shared" si="27"/>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="AD23">
-        <f t="shared" si="27"/>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="AE23">
-        <f t="shared" si="27"/>
-        <v>2</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="AF23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AG23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AH23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="AI23">
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="AI23">
-        <f t="shared" si="27"/>
-        <v>5</v>
-      </c>
       <c r="AJ23">
-        <f t="shared" si="27"/>
-        <v>7</v>
+        <f t="shared" si="10"/>
+        <v>6</v>
       </c>
       <c r="AK23">
-        <f t="shared" si="27"/>
-        <v>7</v>
+        <f t="shared" si="10"/>
+        <v>6</v>
       </c>
       <c r="AL23">
-        <f t="shared" si="27"/>
-        <v>7</v>
+        <f t="shared" si="10"/>
+        <v>6</v>
       </c>
       <c r="AM23">
-        <f t="shared" si="27"/>
-        <v>7</v>
+        <f t="shared" si="10"/>
+        <v>6</v>
       </c>
       <c r="AN23">
-        <f t="shared" si="27"/>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="AO23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AP23">
-        <f t="shared" si="27"/>
-        <v>7</v>
+        <f t="shared" si="10"/>
+        <v>6</v>
       </c>
       <c r="AQ23">
-        <f t="shared" si="27"/>
-        <v>4</v>
+        <f t="shared" si="10"/>
+        <v>3</v>
       </c>
       <c r="AR23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AS23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AT23">
-        <f t="shared" si="27"/>
-        <v>4</v>
+        <f t="shared" si="10"/>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A24">
-        <f t="shared" si="26"/>
+        <f t="shared" si="9"/>
         <v>23</v>
       </c>
       <c r="I24" s="2"/>
@@ -2466,7 +2465,7 @@
     </row>
     <row r="25" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
       <c r="I25" s="2"/>
@@ -2565,12 +2564,12 @@
         <v>5</v>
       </c>
       <c r="AZ25">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A26">
-        <f t="shared" si="26"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="I26" s="2"/>
@@ -2602,93 +2601,93 @@
       <c r="T26" s="2"/>
       <c r="V26" s="2"/>
       <c r="Z26">
-        <f>Z23-Z25*7</f>
+        <f>Z23-Z25*6</f>
         <v>0</v>
       </c>
       <c r="AA26">
-        <f t="shared" ref="AA26:AT26" si="28">AA23-AA25*7</f>
+        <f t="shared" ref="AA26:AT26" si="11">AA23-AA25*6</f>
         <v>0</v>
       </c>
       <c r="AB26">
-        <f t="shared" si="28"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AC26">
-        <f t="shared" si="28"/>
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="AD26">
-        <f t="shared" si="28"/>
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="AE26">
-        <f t="shared" si="28"/>
-        <v>2</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="AF26">
-        <f t="shared" si="28"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AG26">
-        <f t="shared" si="28"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AH26">
-        <f t="shared" si="28"/>
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="AI26">
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="AI26">
-        <f t="shared" si="28"/>
-        <v>5</v>
-      </c>
       <c r="AJ26">
-        <f t="shared" si="28"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AK26">
-        <f t="shared" si="28"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AL26">
-        <f t="shared" si="28"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AM26">
-        <f t="shared" si="28"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AN26">
-        <f t="shared" si="28"/>
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="AO26">
-        <f t="shared" si="28"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AP26">
-        <f t="shared" si="28"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AQ26">
-        <f t="shared" si="28"/>
-        <v>4</v>
+        <f t="shared" si="11"/>
+        <v>3</v>
       </c>
       <c r="AR26">
-        <f t="shared" si="28"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AS26">
-        <f t="shared" si="28"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AT26">
-        <f t="shared" si="28"/>
-        <v>4</v>
+        <f t="shared" si="11"/>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A27">
-        <f t="shared" si="26"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="I27" s="2"/>
@@ -2722,7 +2721,7 @@
     </row>
     <row r="28" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A28">
-        <f t="shared" si="26"/>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
       <c r="I28" s="2"/>
@@ -2821,12 +2820,12 @@
         <v>1</v>
       </c>
       <c r="AZ28">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A29">
-        <f t="shared" si="26"/>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
       <c r="I29" s="2"/>
@@ -2858,93 +2857,93 @@
       <c r="T29" s="2"/>
       <c r="V29" s="2"/>
       <c r="Z29">
-        <f>Z26-Z28*5</f>
+        <f>Z26-Z28*4</f>
         <v>0</v>
       </c>
       <c r="AA29">
-        <f t="shared" ref="AA29:AT29" si="29">AA26-AA28*5</f>
+        <f t="shared" ref="AA29:AT29" si="12">AA26-AA28*4</f>
         <v>0</v>
       </c>
       <c r="AB29">
-        <f t="shared" si="29"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="AC29">
-        <f t="shared" si="29"/>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="AD29">
-        <f t="shared" si="29"/>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="AE29">
-        <f t="shared" si="29"/>
-        <v>2</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="AF29">
-        <f t="shared" si="29"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AG29">
-        <f t="shared" si="29"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AH29">
-        <f t="shared" si="29"/>
-        <v>4</v>
+        <f t="shared" si="12"/>
+        <v>3</v>
       </c>
       <c r="AI29">
-        <f t="shared" si="29"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AJ29">
-        <f t="shared" si="29"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AK29">
-        <f t="shared" si="29"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AL29">
-        <f t="shared" si="29"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AM29">
-        <f t="shared" si="29"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AN29">
-        <f t="shared" si="29"/>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="AO29">
-        <f t="shared" si="29"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AP29">
-        <f t="shared" si="29"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AQ29">
-        <f t="shared" si="29"/>
-        <v>4</v>
+        <f t="shared" si="12"/>
+        <v>3</v>
       </c>
       <c r="AR29">
-        <f t="shared" si="29"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AS29">
-        <f t="shared" si="29"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AT29">
-        <f t="shared" si="29"/>
-        <v>4</v>
+        <f t="shared" si="12"/>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A30">
-        <f t="shared" si="26"/>
+        <f t="shared" si="9"/>
         <v>29</v>
       </c>
       <c r="I30" s="2"/>
@@ -2973,7 +2972,7 @@
     </row>
     <row r="31" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A31">
-        <f t="shared" si="26"/>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
       <c r="I31" s="2"/>
@@ -3067,12 +3066,12 @@
         <v>2</v>
       </c>
       <c r="AZ31">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A32">
-        <f t="shared" si="26"/>
+        <f t="shared" si="9"/>
         <v>31</v>
       </c>
       <c r="I32" s="2"/>
@@ -3099,93 +3098,93 @@
       <c r="T32" s="2"/>
       <c r="V32" s="2"/>
       <c r="Z32">
-        <f>Z29-Z31*4</f>
+        <f>Z29-Z31*3</f>
         <v>0</v>
       </c>
       <c r="AA32">
-        <f t="shared" ref="AA32:AT32" si="30">AA29-AA31*4</f>
+        <f t="shared" ref="AA32:AT32" si="13">AA29-AA31*3</f>
         <v>0</v>
       </c>
       <c r="AB32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AC32">
-        <f t="shared" si="30"/>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="AD32">
-        <f t="shared" si="30"/>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="AE32">
-        <f t="shared" si="30"/>
-        <v>2</v>
+        <f t="shared" si="13"/>
+        <v>1</v>
       </c>
       <c r="AF32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AG32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AH32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AI32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AJ32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AK32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AL32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AM32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AN32">
-        <f t="shared" si="30"/>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="AO32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AP32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AQ32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AR32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AS32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AT32">
-        <f t="shared" si="30"/>
-        <v>4</v>
+        <f t="shared" si="13"/>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A33">
-        <f t="shared" si="26"/>
+        <f t="shared" si="9"/>
         <v>32</v>
       </c>
       <c r="I33" s="2"/>
@@ -3280,7 +3279,7 @@
     </row>
     <row r="34" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A34">
-        <f t="shared" si="26"/>
+        <f t="shared" si="9"/>
         <v>33</v>
       </c>
       <c r="I34" s="2"/>
@@ -3306,89 +3305,89 @@
       <c r="R34" s="2"/>
       <c r="T34" s="2"/>
       <c r="V34" s="2"/>
-      <c r="Z34" s="12">
-        <f>Z13+AA13+AB13+AC13+Z16+AA16+AB16+AC16+Z19+AA19+AB19+AC19+Z22+AA22+AB22+AC22+Z25+AA25+AB25+Z28+AA28+AB28+Z31+AA31+AB31+Z32</f>
-        <v>0</v>
-      </c>
-      <c r="AA34" s="1">
-        <f t="shared" ref="AA34:AT34" si="31">AA13+AB13+AC13+AD13+AA16+AB16+AC16+AD16+AA19+AB19+AC19+AD19+AA22+AB22+AC22+AD22+AA25+AB25+AC25+AA28+AB28+AC28+AA31+AB31+AC31+AA32</f>
-        <v>0</v>
-      </c>
-      <c r="AB34" s="1">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="AC34" s="1">
-        <f t="shared" si="31"/>
-        <v>2</v>
-      </c>
-      <c r="AD34" s="1">
-        <f t="shared" si="31"/>
-        <v>3</v>
-      </c>
-      <c r="AE34" s="1">
-        <f t="shared" si="31"/>
-        <v>5</v>
-      </c>
-      <c r="AF34" s="1">
-        <f t="shared" si="31"/>
-        <v>5</v>
-      </c>
-      <c r="AG34" s="1">
-        <f t="shared" si="31"/>
+      <c r="Z34">
+        <f>Z13+AA13+AB13+AC13+Z16+AA16+AB16+AC16+Z19+AA19+AB19+AC19+Z22+AA22+AB22+AC22+Z25+AA25+AB25+Z28+AA28+AB28+Z31+AA31+Z32</f>
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <f t="shared" ref="AA34:AT34" si="14">AA13+AB13+AC13+AD13+AA16+AB16+AC16+AD16+AA19+AB19+AC19+AD19+AA22+AB22+AC22+AD22+AA25+AB25+AC25+AA28+AB28+AC28+AA31+AB31+AA32</f>
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AC34">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AD34">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="AE34">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="AF34">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="AG34">
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
-      <c r="AH34" s="1">
-        <f>AH13+AI13+AJ13+AK13+AH16+AI16+AJ16+AK16+AH19+AI19+AJ19+AK19+AH22+AI22+AJ22+AK22+AH25+AI25+AJ25+AH28+AI28+AJ28+AH31+AI31+AJ31+AH32</f>
+      <c r="AH34">
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
-      <c r="AI34" s="1">
-        <f>AI13+AJ13+AK13+AL13+AI16+AJ16+AK16+AL16+AI19+AJ19+AK19+AL19+AI22+AJ22+AK22+AL22+AI25+AJ25+AK25+AI28+AJ28+AK28+AI31+AJ31+AK31+AI32</f>
+      <c r="AI34">
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
-      <c r="AJ34" s="1">
-        <f t="shared" si="31"/>
+      <c r="AJ34">
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
-      <c r="AK34" s="1">
-        <f t="shared" si="31"/>
+      <c r="AK34">
+        <f t="shared" si="14"/>
         <v>12</v>
       </c>
-      <c r="AL34" s="1">
-        <f t="shared" si="31"/>
+      <c r="AL34">
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
-      <c r="AM34" s="1">
-        <f t="shared" si="31"/>
+      <c r="AM34">
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
-      <c r="AN34" s="1">
-        <f>AN13+AO13+AP13+AQ13+AN16+AO16+AP16+AQ16+AN19+AO19+AP19+AQ19+AN22+AO22+AP22+AQ22+AN25+AO25+AP25+AN28+AO28+AP28+AN31+AO31+AP31+AN32</f>
-        <v>10</v>
-      </c>
-      <c r="AO34" s="1">
-        <f t="shared" si="31"/>
+      <c r="AN34">
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
-      <c r="AP34" s="1">
-        <f t="shared" si="31"/>
+      <c r="AO34">
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
-      <c r="AQ34" s="1">
-        <f t="shared" si="31"/>
+      <c r="AP34">
+        <f>AP13+AQ13+AR13+AS13+AP16+AQ16+AR16+AS16+AP19+AQ19+AR19+AS19+AP22+AQ22+AR22+AS22+AP25+AQ25+AR25+AP28+AQ28+AR28+AP31+AQ31+AP32</f>
+        <v>8</v>
+      </c>
+      <c r="AQ34">
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
-      <c r="AR34" s="1">
-        <f t="shared" si="31"/>
+      <c r="AR34">
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
-      <c r="AS34" s="1">
-        <f t="shared" si="31"/>
-        <v>2</v>
-      </c>
-      <c r="AT34" s="1">
-        <f t="shared" si="31"/>
-        <v>5</v>
+      <c r="AS34">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="AT34">
+        <f t="shared" si="14"/>
+        <v>4</v>
       </c>
       <c r="AV34" t="s">
         <v>5</v>
@@ -3399,7 +3398,7 @@
     </row>
     <row r="35" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A35">
-        <f t="shared" si="26"/>
+        <f t="shared" si="9"/>
         <v>34</v>
       </c>
       <c r="I35" s="2"/>
@@ -3426,11 +3425,11 @@
       <c r="T35" s="2"/>
       <c r="V35" s="2"/>
       <c r="Z35">
-        <f t="shared" ref="Z35:AA35" si="32">Z34+Z33</f>
+        <f t="shared" ref="Z35:AA35" si="15">Z34+Z33</f>
         <v>0</v>
       </c>
       <c r="AA35">
-        <f t="shared" si="32"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB35">
@@ -3438,76 +3437,76 @@
         <v>2</v>
       </c>
       <c r="AC35">
-        <f t="shared" ref="AC35:AT35" si="33">AC34+AC33</f>
-        <v>3</v>
+        <f t="shared" ref="AC35:AT35" si="16">AC34+AC33</f>
+        <v>2</v>
       </c>
       <c r="AD35">
-        <f t="shared" si="33"/>
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="AE35">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="AF35">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="AG35">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="AH35">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+      <c r="AI35">
+        <f t="shared" si="16"/>
+        <v>11</v>
+      </c>
+      <c r="AJ35">
+        <f t="shared" si="16"/>
+        <v>12</v>
+      </c>
+      <c r="AK35">
+        <f t="shared" si="16"/>
+        <v>13</v>
+      </c>
+      <c r="AL35">
+        <f t="shared" si="16"/>
+        <v>12</v>
+      </c>
+      <c r="AM35">
+        <f t="shared" si="16"/>
+        <v>11</v>
+      </c>
+      <c r="AN35">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+      <c r="AO35">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="AP35">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="AQ35">
+        <f t="shared" si="16"/>
+        <v>6</v>
+      </c>
+      <c r="AR35" s="7">
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
-      <c r="AE35">
-        <f t="shared" si="33"/>
-        <v>6</v>
-      </c>
-      <c r="AF35">
-        <f t="shared" si="33"/>
-        <v>6</v>
-      </c>
-      <c r="AG35">
-        <f t="shared" si="33"/>
-        <v>8</v>
-      </c>
-      <c r="AH35">
-        <f t="shared" si="33"/>
-        <v>10</v>
-      </c>
-      <c r="AI35">
-        <f t="shared" si="33"/>
-        <v>11</v>
-      </c>
-      <c r="AJ35">
-        <f t="shared" si="33"/>
-        <v>12</v>
-      </c>
-      <c r="AK35">
-        <f t="shared" si="33"/>
-        <v>13</v>
-      </c>
-      <c r="AL35">
-        <f t="shared" si="33"/>
-        <v>12</v>
-      </c>
-      <c r="AM35">
-        <f t="shared" si="33"/>
-        <v>11</v>
-      </c>
-      <c r="AN35">
-        <f t="shared" si="33"/>
-        <v>11</v>
-      </c>
-      <c r="AO35">
-        <f t="shared" si="33"/>
-        <v>9</v>
-      </c>
-      <c r="AP35">
-        <f t="shared" si="33"/>
-        <v>8</v>
-      </c>
-      <c r="AQ35">
-        <f t="shared" si="33"/>
-        <v>6</v>
-      </c>
-      <c r="AR35" s="7">
-        <f t="shared" si="33"/>
+      <c r="AS35" s="7">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="AT35" s="7">
+        <f t="shared" si="16"/>
         <v>4</v>
-      </c>
-      <c r="AS35" s="7">
-        <f t="shared" si="33"/>
-        <v>2</v>
-      </c>
-      <c r="AT35" s="7">
-        <f t="shared" si="33"/>
-        <v>5</v>
       </c>
       <c r="AV35" t="s">
         <v>4</v>
@@ -3515,7 +3514,7 @@
     </row>
     <row r="36" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A36">
-        <f t="shared" si="26"/>
+        <f t="shared" si="9"/>
         <v>35</v>
       </c>
       <c r="I36" s="2"/>
@@ -3541,7 +3540,6 @@
       <c r="R36" s="2"/>
       <c r="U36" s="2"/>
       <c r="V36" s="2"/>
-      <c r="Z36" s="12"/>
       <c r="AA36" s="11"/>
       <c r="AB36" s="11"/>
       <c r="AC36" s="11"/>
@@ -3562,7 +3560,7 @@
     </row>
     <row r="37" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A37">
-        <f t="shared" si="26"/>
+        <f t="shared" si="9"/>
         <v>36</v>
       </c>
       <c r="I37" s="2"/>
@@ -3663,7 +3661,7 @@
     </row>
     <row r="38" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A38">
-        <f t="shared" si="26"/>
+        <f t="shared" si="9"/>
         <v>37</v>
       </c>
       <c r="I38" s="2"/>
@@ -3696,89 +3694,89 @@
         <v>0</v>
       </c>
       <c r="AA38">
-        <f t="shared" ref="AA38:AT38" si="34">AA35-AA37*13</f>
+        <f t="shared" ref="AA38:AT38" si="17">AA35-AA37*13</f>
         <v>0</v>
       </c>
       <c r="AB38">
-        <f t="shared" si="34"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="AC38">
-        <f t="shared" si="34"/>
-        <v>3</v>
+        <f t="shared" si="17"/>
+        <v>2</v>
       </c>
       <c r="AD38">
-        <f t="shared" si="34"/>
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="AE38">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="AF38">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="AG38">
+        <f t="shared" si="17"/>
+        <v>8</v>
+      </c>
+      <c r="AH38">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+      <c r="AI38">
+        <f t="shared" si="17"/>
+        <v>11</v>
+      </c>
+      <c r="AJ38">
+        <f t="shared" si="17"/>
+        <v>12</v>
+      </c>
+      <c r="AK38">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AL38">
+        <f t="shared" si="17"/>
+        <v>12</v>
+      </c>
+      <c r="AM38">
+        <f t="shared" si="17"/>
+        <v>11</v>
+      </c>
+      <c r="AN38">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+      <c r="AO38">
+        <f t="shared" si="17"/>
+        <v>8</v>
+      </c>
+      <c r="AP38">
+        <f t="shared" si="17"/>
+        <v>8</v>
+      </c>
+      <c r="AQ38">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="AR38" s="7">
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
-      <c r="AE38">
-        <f t="shared" si="34"/>
-        <v>6</v>
-      </c>
-      <c r="AF38">
-        <f t="shared" si="34"/>
-        <v>6</v>
-      </c>
-      <c r="AG38">
-        <f t="shared" si="34"/>
-        <v>8</v>
-      </c>
-      <c r="AH38">
-        <f t="shared" si="34"/>
-        <v>10</v>
-      </c>
-      <c r="AI38">
-        <f t="shared" si="34"/>
-        <v>11</v>
-      </c>
-      <c r="AJ38">
-        <f t="shared" si="34"/>
-        <v>12</v>
-      </c>
-      <c r="AK38">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="AL38">
-        <f t="shared" si="34"/>
-        <v>12</v>
-      </c>
-      <c r="AM38">
-        <f t="shared" si="34"/>
-        <v>11</v>
-      </c>
-      <c r="AN38">
-        <f t="shared" si="34"/>
-        <v>11</v>
-      </c>
-      <c r="AO38">
-        <f t="shared" si="34"/>
-        <v>9</v>
-      </c>
-      <c r="AP38">
-        <f t="shared" si="34"/>
-        <v>8</v>
-      </c>
-      <c r="AQ38">
-        <f t="shared" si="34"/>
-        <v>6</v>
-      </c>
-      <c r="AR38" s="7">
-        <f t="shared" si="34"/>
+      <c r="AS38" s="7">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="AT38" s="7">
+        <f t="shared" si="17"/>
         <v>4</v>
-      </c>
-      <c r="AS38" s="7">
-        <f t="shared" si="34"/>
-        <v>2</v>
-      </c>
-      <c r="AT38" s="7">
-        <f t="shared" si="34"/>
-        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A39">
-        <f t="shared" si="26"/>
+        <f t="shared" si="9"/>
         <v>38</v>
       </c>
       <c r="I39" s="2"/>
@@ -3802,7 +3800,7 @@
     </row>
     <row r="40" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A40">
-        <f t="shared" si="26"/>
+        <f t="shared" si="9"/>
         <v>39</v>
       </c>
       <c r="I40" s="2"/>
@@ -3894,7 +3892,7 @@
     </row>
     <row r="41" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A41">
-        <f t="shared" si="26"/>
+        <f t="shared" si="9"/>
         <v>40</v>
       </c>
       <c r="I41" s="2"/>
@@ -3916,89 +3914,89 @@
         <v>0</v>
       </c>
       <c r="AA41">
-        <f t="shared" ref="AA41:AT41" si="35">AA38-AA40*12</f>
+        <f t="shared" ref="AA41:AT41" si="18">AA38-AA40*12</f>
         <v>0</v>
       </c>
       <c r="AB41">
-        <f t="shared" si="35"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="AC41">
-        <f t="shared" si="35"/>
-        <v>3</v>
+        <f t="shared" si="18"/>
+        <v>2</v>
       </c>
       <c r="AD41">
-        <f t="shared" si="35"/>
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="AE41">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="AF41">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="AG41">
+        <f t="shared" si="18"/>
+        <v>8</v>
+      </c>
+      <c r="AH41">
+        <f t="shared" si="18"/>
+        <v>10</v>
+      </c>
+      <c r="AI41">
+        <f t="shared" si="18"/>
+        <v>11</v>
+      </c>
+      <c r="AJ41">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AK41">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AL41">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AM41">
+        <f t="shared" si="18"/>
+        <v>11</v>
+      </c>
+      <c r="AN41">
+        <f t="shared" si="18"/>
+        <v>10</v>
+      </c>
+      <c r="AO41">
+        <f t="shared" si="18"/>
+        <v>8</v>
+      </c>
+      <c r="AP41">
+        <f t="shared" si="18"/>
+        <v>8</v>
+      </c>
+      <c r="AQ41">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="AR41" s="7">
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
-      <c r="AE41">
-        <f t="shared" si="35"/>
-        <v>6</v>
-      </c>
-      <c r="AF41">
-        <f t="shared" si="35"/>
-        <v>6</v>
-      </c>
-      <c r="AG41">
-        <f t="shared" si="35"/>
-        <v>8</v>
-      </c>
-      <c r="AH41">
-        <f t="shared" si="35"/>
-        <v>10</v>
-      </c>
-      <c r="AI41">
-        <f t="shared" si="35"/>
-        <v>11</v>
-      </c>
-      <c r="AJ41">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="AK41">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="AL41">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="AM41">
-        <f t="shared" si="35"/>
-        <v>11</v>
-      </c>
-      <c r="AN41">
-        <f t="shared" si="35"/>
-        <v>11</v>
-      </c>
-      <c r="AO41">
-        <f t="shared" si="35"/>
-        <v>9</v>
-      </c>
-      <c r="AP41">
-        <f t="shared" si="35"/>
-        <v>8</v>
-      </c>
-      <c r="AQ41">
-        <f t="shared" si="35"/>
-        <v>6</v>
-      </c>
-      <c r="AR41" s="7">
-        <f t="shared" si="35"/>
+      <c r="AS41" s="7">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="AT41" s="7">
+        <f t="shared" si="18"/>
         <v>4</v>
-      </c>
-      <c r="AS41" s="7">
-        <f t="shared" si="35"/>
-        <v>2</v>
-      </c>
-      <c r="AT41" s="7">
-        <f t="shared" si="35"/>
-        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A42">
-        <f t="shared" si="26"/>
+        <f t="shared" si="9"/>
         <v>41</v>
       </c>
       <c r="I42" s="2"/>
@@ -4022,7 +4020,7 @@
     </row>
     <row r="43" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A43">
-        <f t="shared" si="26"/>
+        <f t="shared" si="9"/>
         <v>42</v>
       </c>
       <c r="I43" s="2"/>
@@ -4083,7 +4081,7 @@
         <v>1</v>
       </c>
       <c r="AN43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO43">
         <v>0</v>
@@ -4105,7 +4103,7 @@
       </c>
       <c r="AY43">
         <f>SUM(Z43:AT43)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ43">
         <v>11</v>
@@ -4113,7 +4111,7 @@
     </row>
     <row r="44" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A44">
-        <f t="shared" si="26"/>
+        <f t="shared" si="9"/>
         <v>43</v>
       </c>
       <c r="I44" s="2"/>
@@ -4136,89 +4134,89 @@
         <v>0</v>
       </c>
       <c r="AA44">
-        <f t="shared" ref="AA44:AT44" si="36">AA41-AA43*11</f>
+        <f t="shared" ref="AA44:AT44" si="19">AA41-AA43*11</f>
         <v>0</v>
       </c>
       <c r="AB44">
-        <f t="shared" si="36"/>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="AC44">
-        <f t="shared" si="36"/>
-        <v>3</v>
+        <f t="shared" si="19"/>
+        <v>2</v>
       </c>
       <c r="AD44">
-        <f t="shared" si="36"/>
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="AE44">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="AF44">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="AG44">
+        <f t="shared" si="19"/>
+        <v>8</v>
+      </c>
+      <c r="AH44">
+        <f t="shared" si="19"/>
+        <v>10</v>
+      </c>
+      <c r="AI44">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AJ44">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AK44">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AL44">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AM44">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AN44">
+        <f t="shared" si="19"/>
+        <v>10</v>
+      </c>
+      <c r="AO44">
+        <f t="shared" si="19"/>
+        <v>8</v>
+      </c>
+      <c r="AP44">
+        <f t="shared" si="19"/>
+        <v>8</v>
+      </c>
+      <c r="AQ44">
+        <f t="shared" si="19"/>
+        <v>6</v>
+      </c>
+      <c r="AR44" s="7">
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
-      <c r="AE44">
-        <f t="shared" si="36"/>
-        <v>6</v>
-      </c>
-      <c r="AF44">
-        <f t="shared" si="36"/>
-        <v>6</v>
-      </c>
-      <c r="AG44">
-        <f t="shared" si="36"/>
-        <v>8</v>
-      </c>
-      <c r="AH44">
-        <f t="shared" si="36"/>
-        <v>10</v>
-      </c>
-      <c r="AI44">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="AJ44">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="AK44">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="AL44">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="AM44">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="AN44">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="AO44">
-        <f t="shared" si="36"/>
-        <v>9</v>
-      </c>
-      <c r="AP44">
-        <f t="shared" si="36"/>
-        <v>8</v>
-      </c>
-      <c r="AQ44">
-        <f t="shared" si="36"/>
-        <v>6</v>
-      </c>
-      <c r="AR44" s="7">
-        <f t="shared" si="36"/>
+      <c r="AS44" s="7">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="AT44" s="7">
+        <f t="shared" si="19"/>
         <v>4</v>
-      </c>
-      <c r="AS44" s="7">
-        <f t="shared" si="36"/>
-        <v>2</v>
-      </c>
-      <c r="AT44" s="7">
-        <f t="shared" si="36"/>
-        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A45">
-        <f t="shared" si="26"/>
+        <f t="shared" si="9"/>
         <v>44</v>
       </c>
       <c r="J45" s="2"/>
@@ -4237,7 +4235,7 @@
     </row>
     <row r="46" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A46">
-        <f t="shared" si="26"/>
+        <f t="shared" si="9"/>
         <v>45</v>
       </c>
       <c r="O46" s="4" t="s">
@@ -4286,7 +4284,7 @@
         <v>0</v>
       </c>
       <c r="AN46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO46">
         <v>0</v>
@@ -4308,7 +4306,7 @@
       </c>
       <c r="AY46">
         <f>SUM(Z46:AT46)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ46">
         <v>10</v>
@@ -4316,7 +4314,7 @@
     </row>
     <row r="47" spans="1:52" x14ac:dyDescent="0.45">
       <c r="A47">
-        <f t="shared" si="26"/>
+        <f t="shared" si="9"/>
         <v>46</v>
       </c>
       <c r="H47" s="2"/>
@@ -4335,84 +4333,84 @@
         <v>0</v>
       </c>
       <c r="AA47">
-        <f t="shared" ref="AA47:AT47" si="37">AA44-AA46*10</f>
+        <f t="shared" ref="AA47:AT47" si="20">AA44-AA46*10</f>
         <v>0</v>
       </c>
       <c r="AB47">
-        <f t="shared" si="37"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="AC47">
-        <f t="shared" si="37"/>
-        <v>3</v>
+        <f t="shared" si="20"/>
+        <v>2</v>
       </c>
       <c r="AD47">
-        <f t="shared" si="37"/>
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="AE47">
+        <f t="shared" si="20"/>
+        <v>5</v>
+      </c>
+      <c r="AF47">
+        <f t="shared" si="20"/>
+        <v>5</v>
+      </c>
+      <c r="AG47">
+        <f t="shared" si="20"/>
+        <v>8</v>
+      </c>
+      <c r="AH47">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AJ47">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AK47">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AL47">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AM47">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AN47">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AO47">
+        <f t="shared" si="20"/>
+        <v>8</v>
+      </c>
+      <c r="AP47">
+        <f t="shared" si="20"/>
+        <v>8</v>
+      </c>
+      <c r="AQ47">
+        <f t="shared" si="20"/>
+        <v>6</v>
+      </c>
+      <c r="AR47" s="7">
+        <f t="shared" si="20"/>
         <v>4</v>
       </c>
-      <c r="AE47">
-        <f t="shared" si="37"/>
-        <v>6</v>
-      </c>
-      <c r="AF47">
-        <f t="shared" si="37"/>
-        <v>6</v>
-      </c>
-      <c r="AG47">
-        <f t="shared" si="37"/>
-        <v>8</v>
-      </c>
-      <c r="AH47">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="AI47">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="AJ47">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="AK47">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="AL47">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="AM47">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="AN47">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="AO47">
-        <f t="shared" si="37"/>
-        <v>9</v>
-      </c>
-      <c r="AP47">
-        <f t="shared" si="37"/>
-        <v>8</v>
-      </c>
-      <c r="AQ47">
-        <f t="shared" si="37"/>
-        <v>6</v>
-      </c>
-      <c r="AR47" s="7">
-        <f t="shared" si="37"/>
+      <c r="AS47" s="7">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="AT47" s="7">
+        <f t="shared" si="20"/>
         <v>4</v>
-      </c>
-      <c r="AS47" s="7">
-        <f t="shared" si="37"/>
-        <v>2</v>
-      </c>
-      <c r="AT47" s="7">
-        <f t="shared" si="37"/>
-        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:52" x14ac:dyDescent="0.45">
@@ -4487,7 +4485,7 @@
         <v>0</v>
       </c>
       <c r="AO49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP49">
         <v>0</v>
@@ -4506,7 +4504,7 @@
       </c>
       <c r="AY49">
         <f>SUM(Z49:AT49)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ49">
         <v>9</v>
@@ -4528,84 +4526,84 @@
         <v>0</v>
       </c>
       <c r="AA50">
-        <f t="shared" ref="AA50:AT50" si="38">AA47-AA49*9</f>
+        <f t="shared" ref="AA50:AT50" si="21">AA47-AA49*9</f>
         <v>0</v>
       </c>
       <c r="AB50">
-        <f t="shared" si="38"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="AC50">
-        <f t="shared" si="38"/>
-        <v>3</v>
+        <f t="shared" si="21"/>
+        <v>2</v>
       </c>
       <c r="AD50">
-        <f t="shared" si="38"/>
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="AE50">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
+      <c r="AF50">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
+      <c r="AG50">
+        <f t="shared" si="21"/>
+        <v>8</v>
+      </c>
+      <c r="AH50">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AJ50">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AK50">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AL50">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AM50">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AN50">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AO50">
+        <f t="shared" si="21"/>
+        <v>8</v>
+      </c>
+      <c r="AP50">
+        <f t="shared" si="21"/>
+        <v>8</v>
+      </c>
+      <c r="AQ50">
+        <f t="shared" si="21"/>
+        <v>6</v>
+      </c>
+      <c r="AR50" s="7">
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
-      <c r="AE50">
-        <f t="shared" si="38"/>
-        <v>6</v>
-      </c>
-      <c r="AF50">
-        <f t="shared" si="38"/>
-        <v>6</v>
-      </c>
-      <c r="AG50">
-        <f t="shared" si="38"/>
-        <v>8</v>
-      </c>
-      <c r="AH50">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="AI50">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="AJ50">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="AK50">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="AL50">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="AM50">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="AN50">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="AO50">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="AP50">
-        <f t="shared" si="38"/>
-        <v>8</v>
-      </c>
-      <c r="AQ50">
-        <f t="shared" si="38"/>
-        <v>6</v>
-      </c>
-      <c r="AR50" s="7">
-        <f t="shared" si="38"/>
+      <c r="AS50" s="7">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="AT50" s="7">
+        <f t="shared" si="21"/>
         <v>4</v>
-      </c>
-      <c r="AS50" s="7">
-        <f t="shared" si="38"/>
-        <v>2</v>
-      </c>
-      <c r="AT50" s="7">
-        <f t="shared" si="38"/>
-        <v>5</v>
       </c>
     </row>
     <row r="51" spans="6:52" x14ac:dyDescent="0.45">
@@ -4668,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="AO52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP52">
         <v>1</v>
@@ -4687,7 +4685,7 @@
       </c>
       <c r="AY52">
         <f>SUM(Z52:AT52)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ52">
         <v>8</v>
@@ -4708,84 +4706,84 @@
         <v>0</v>
       </c>
       <c r="AA53">
-        <f t="shared" ref="AA53:AT53" si="39">AA50-AA52*8</f>
+        <f t="shared" ref="AA53:AT53" si="22">AA50-AA52*8</f>
         <v>0</v>
       </c>
       <c r="AB53">
-        <f t="shared" si="39"/>
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
       <c r="AC53">
-        <f t="shared" si="39"/>
-        <v>3</v>
+        <f t="shared" si="22"/>
+        <v>2</v>
       </c>
       <c r="AD53">
-        <f t="shared" si="39"/>
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+      <c r="AE53">
+        <f t="shared" si="22"/>
+        <v>5</v>
+      </c>
+      <c r="AF53">
+        <f t="shared" si="22"/>
+        <v>5</v>
+      </c>
+      <c r="AG53">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AH53">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AJ53">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AK53">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AL53">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AM53">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AN53">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AO53">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AP53">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AQ53">
+        <f t="shared" si="22"/>
+        <v>6</v>
+      </c>
+      <c r="AR53" s="7">
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="AE53">
-        <f t="shared" si="39"/>
-        <v>6</v>
-      </c>
-      <c r="AF53">
-        <f t="shared" si="39"/>
-        <v>6</v>
-      </c>
-      <c r="AG53">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="AH53">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="AI53">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="AJ53">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="AK53">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="AL53">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="AM53">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="AN53">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="AO53">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="AP53">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="AQ53">
-        <f t="shared" si="39"/>
-        <v>6</v>
-      </c>
-      <c r="AR53" s="7">
-        <f t="shared" si="39"/>
+      <c r="AS53" s="7">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+      <c r="AT53" s="7">
+        <f t="shared" si="22"/>
         <v>4</v>
-      </c>
-      <c r="AS53" s="7">
-        <f t="shared" si="39"/>
-        <v>2</v>
-      </c>
-      <c r="AT53" s="7">
-        <f t="shared" si="39"/>
-        <v>5</v>
       </c>
     </row>
     <row r="54" spans="6:52" x14ac:dyDescent="0.45">
@@ -4889,84 +4887,84 @@
         <v>0</v>
       </c>
       <c r="AA56">
-        <f t="shared" ref="AA56:AT56" si="40">AA53-AA55*7</f>
+        <f t="shared" ref="AA56:AT56" si="23">AA53-AA55*7</f>
         <v>0</v>
       </c>
       <c r="AB56">
-        <f t="shared" si="40"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="AC56">
-        <f t="shared" si="40"/>
-        <v>3</v>
+        <f t="shared" si="23"/>
+        <v>2</v>
       </c>
       <c r="AD56">
-        <f t="shared" si="40"/>
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+      <c r="AE56">
+        <f t="shared" si="23"/>
+        <v>5</v>
+      </c>
+      <c r="AF56">
+        <f t="shared" si="23"/>
+        <v>5</v>
+      </c>
+      <c r="AG56">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AH56">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AJ56">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AK56">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AL56">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AM56">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AN56">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AO56">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AP56">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AQ56">
+        <f t="shared" si="23"/>
+        <v>6</v>
+      </c>
+      <c r="AR56" s="7">
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
-      <c r="AE56">
-        <f t="shared" si="40"/>
-        <v>6</v>
-      </c>
-      <c r="AF56">
-        <f t="shared" si="40"/>
-        <v>6</v>
-      </c>
-      <c r="AG56">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="AH56">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="AI56">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="AJ56">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="AK56">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="AL56">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="AM56">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="AN56">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="AO56">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="AP56">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="AQ56">
-        <f t="shared" si="40"/>
-        <v>6</v>
-      </c>
-      <c r="AR56" s="7">
-        <f t="shared" si="40"/>
+      <c r="AS56" s="7">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="AT56" s="7">
+        <f t="shared" si="23"/>
         <v>4</v>
-      </c>
-      <c r="AS56" s="7">
-        <f t="shared" si="40"/>
-        <v>2</v>
-      </c>
-      <c r="AT56" s="7">
-        <f t="shared" si="40"/>
-        <v>5</v>
       </c>
     </row>
     <row r="57" spans="6:52" x14ac:dyDescent="0.45">
@@ -5008,10 +5006,10 @@
         <v>0</v>
       </c>
       <c r="AE58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG58">
         <v>0</v>
@@ -5057,7 +5055,7 @@
       </c>
       <c r="AY58">
         <f>SUM(Z58:AT58)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AZ58">
         <v>6</v>
@@ -5072,84 +5070,84 @@
         <v>0</v>
       </c>
       <c r="AA59">
-        <f t="shared" ref="AA59:AT59" si="41">AA56-AA58*6</f>
+        <f t="shared" ref="AA59:AT59" si="24">AA56-AA58*6</f>
         <v>0</v>
       </c>
       <c r="AB59">
-        <f t="shared" si="41"/>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="AC59">
-        <f t="shared" si="41"/>
-        <v>3</v>
+        <f t="shared" si="24"/>
+        <v>2</v>
       </c>
       <c r="AD59">
-        <f t="shared" si="41"/>
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="AE59">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="AF59">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="AG59">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AH59">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AJ59">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AK59">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AL59">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AM59">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AN59">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AO59">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AP59">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AQ59">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AR59" s="7">
+        <f t="shared" si="24"/>
         <v>4</v>
       </c>
-      <c r="AE59">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="AF59">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="AG59">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="AH59">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="AI59">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="AJ59">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="AK59">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="AL59">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="AM59">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="AN59">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="AO59">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="AP59">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="AQ59">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="AR59" s="7">
-        <f t="shared" si="41"/>
+      <c r="AS59" s="7">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="AT59" s="7">
+        <f t="shared" si="24"/>
         <v>4</v>
-      </c>
-      <c r="AS59" s="7">
-        <f t="shared" si="41"/>
-        <v>2</v>
-      </c>
-      <c r="AT59" s="7">
-        <f t="shared" si="41"/>
-        <v>5</v>
       </c>
     </row>
     <row r="60" spans="6:52" x14ac:dyDescent="0.45">
@@ -5174,10 +5172,10 @@
         <v>0</v>
       </c>
       <c r="AE61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG61">
         <v>0</v>
@@ -5223,7 +5221,7 @@
       </c>
       <c r="AY61">
         <f>SUM(Z61:AT61)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AZ61">
         <v>5</v>
@@ -5235,84 +5233,84 @@
         <v>0</v>
       </c>
       <c r="AA62">
-        <f t="shared" ref="AA62:AT62" si="42">AA59-AA61*5</f>
+        <f t="shared" ref="AA62:AT62" si="25">AA59-AA61*5</f>
         <v>0</v>
       </c>
       <c r="AB62">
-        <f t="shared" si="42"/>
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
       <c r="AC62">
-        <f t="shared" si="42"/>
-        <v>3</v>
+        <f t="shared" si="25"/>
+        <v>2</v>
       </c>
       <c r="AD62">
-        <f t="shared" si="42"/>
+        <f t="shared" si="25"/>
+        <v>3</v>
+      </c>
+      <c r="AE62">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AF62">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AG62">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AH62">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AJ62">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AK62">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AL62">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AM62">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AN62">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AO62">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AP62">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AQ62">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AR62" s="7">
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
-      <c r="AE62">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AF62">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AG62">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AH62">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AI62">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AJ62">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AK62">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AL62">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AM62">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AN62">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AO62">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AP62">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AQ62">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="AR62" s="7">
-        <f t="shared" si="42"/>
+      <c r="AS62" s="7">
+        <f t="shared" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="AT62" s="7">
+        <f t="shared" si="25"/>
         <v>4</v>
-      </c>
-      <c r="AS62" s="7">
-        <f t="shared" si="42"/>
-        <v>2</v>
-      </c>
-      <c r="AT62" s="7">
-        <f t="shared" si="42"/>
-        <v>5</v>
       </c>
     </row>
     <row r="63" spans="6:52" x14ac:dyDescent="0.45">
@@ -5334,7 +5332,7 @@
         <v>0</v>
       </c>
       <c r="AD64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE64">
         <v>0</v>
@@ -5386,7 +5384,7 @@
       </c>
       <c r="AY64">
         <f>SUM(Z64:AT64)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ64">
         <v>4</v>
@@ -5398,84 +5396,84 @@
         <v>0</v>
       </c>
       <c r="AA65">
-        <f t="shared" ref="AA65:AT65" si="43">AA62-AA64*4</f>
+        <f t="shared" ref="AA65:AT65" si="26">AA62-AA64*4</f>
         <v>0</v>
       </c>
       <c r="AB65">
-        <f t="shared" si="43"/>
+        <f t="shared" si="26"/>
         <v>2</v>
       </c>
       <c r="AC65">
-        <f t="shared" si="43"/>
-        <v>3</v>
+        <f t="shared" si="26"/>
+        <v>2</v>
       </c>
       <c r="AD65">
-        <f t="shared" si="43"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>3</v>
       </c>
       <c r="AE65">
-        <f t="shared" si="43"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AF65">
-        <f t="shared" si="43"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AG65">
-        <f t="shared" si="43"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AH65">
-        <f t="shared" si="43"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AI65">
-        <f t="shared" si="43"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AJ65">
-        <f t="shared" si="43"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AK65">
-        <f t="shared" si="43"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AL65">
-        <f t="shared" si="43"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AM65">
-        <f t="shared" si="43"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AN65">
-        <f t="shared" si="43"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AO65">
-        <f t="shared" si="43"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AP65">
-        <f t="shared" si="43"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AQ65">
-        <f t="shared" si="43"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AR65" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="AS65" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="26"/>
         <v>2</v>
       </c>
       <c r="AT65" s="7">
-        <f t="shared" si="43"/>
-        <v>5</v>
+        <f t="shared" si="26"/>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:52" x14ac:dyDescent="0.45">
@@ -5549,79 +5547,79 @@
         <v>0</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:T67" si="44">QUOTIENT(B66,3)</f>
+        <f t="shared" ref="B67:T67" si="27">QUOTIENT(B66,3)</f>
         <v>0</v>
       </c>
       <c r="C67">
-        <f t="shared" si="44"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="D67">
-        <f t="shared" si="44"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="E67">
-        <f t="shared" si="44"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="F67">
-        <f t="shared" si="44"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="G67">
-        <f t="shared" si="44"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="H67">
-        <f t="shared" si="44"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="I67">
-        <f t="shared" si="44"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="J67">
-        <f t="shared" si="44"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="K67">
-        <f t="shared" si="44"/>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="L67">
-        <f t="shared" si="44"/>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="M67">
-        <f t="shared" si="44"/>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="N67">
-        <f t="shared" si="44"/>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="O67">
-        <f t="shared" si="44"/>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="P67">
-        <f t="shared" si="44"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="Q67">
-        <f t="shared" si="44"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="R67">
-        <f t="shared" si="44"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="S67">
-        <f t="shared" si="44"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="T67">
-        <f t="shared" si="44"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="V67">
@@ -5638,10 +5636,10 @@
         <v>0</v>
       </c>
       <c r="AC67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE67">
         <v>0</v>
@@ -5705,79 +5703,79 @@
         <v>0</v>
       </c>
       <c r="B68">
-        <f t="shared" ref="B68:T68" si="45">MOD(B66,3)</f>
+        <f t="shared" ref="B68:T68" si="28">MOD(B66,3)</f>
         <v>0</v>
       </c>
       <c r="C68">
-        <f t="shared" si="45"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="D68">
-        <f t="shared" si="45"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="E68">
-        <f t="shared" si="45"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="F68">
-        <f t="shared" si="45"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="G68">
-        <f t="shared" si="45"/>
+        <f t="shared" si="28"/>
         <v>2</v>
       </c>
       <c r="H68">
-        <f t="shared" si="45"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I68">
-        <f t="shared" si="45"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="J68">
-        <f t="shared" si="45"/>
+        <f t="shared" si="28"/>
         <v>2</v>
       </c>
       <c r="K68">
-        <f t="shared" si="45"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="L68">
-        <f t="shared" si="45"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="M68">
-        <f t="shared" si="45"/>
+        <f t="shared" si="28"/>
         <v>2</v>
       </c>
       <c r="N68">
-        <f t="shared" si="45"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="O68">
-        <f t="shared" si="45"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="P68">
-        <f t="shared" si="45"/>
+        <f t="shared" si="28"/>
         <v>2</v>
       </c>
       <c r="Q68">
-        <f t="shared" si="45"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="R68">
-        <f t="shared" si="45"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="S68">
-        <f t="shared" si="45"/>
+        <f t="shared" si="28"/>
         <v>2</v>
       </c>
       <c r="T68">
-        <f t="shared" si="45"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="Z68">
@@ -5785,84 +5783,84 @@
         <v>0</v>
       </c>
       <c r="AA68">
-        <f t="shared" ref="AA68:AT68" si="46">AA65-AA67*3</f>
+        <f t="shared" ref="AA68:AT68" si="29">AA65-AA67*3</f>
         <v>0</v>
       </c>
       <c r="AB68">
-        <f t="shared" si="46"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="AC68">
-        <f t="shared" si="46"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>2</v>
       </c>
       <c r="AD68">
-        <f t="shared" si="46"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AE68">
-        <f t="shared" si="46"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AF68">
-        <f t="shared" si="46"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AG68">
-        <f t="shared" si="46"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AH68">
-        <f t="shared" si="46"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AI68">
-        <f t="shared" si="46"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AJ68">
-        <f t="shared" si="46"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AK68">
-        <f t="shared" si="46"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AL68">
-        <f t="shared" si="46"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AM68">
-        <f t="shared" si="46"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AN68">
-        <f t="shared" si="46"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AO68">
-        <f t="shared" si="46"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AP68">
-        <f t="shared" si="46"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AQ68">
-        <f t="shared" si="46"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AR68" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="29"/>
         <v>4</v>
       </c>
       <c r="AS68" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="AT68" s="7">
-        <f t="shared" si="46"/>
-        <v>5</v>
+        <f t="shared" si="29"/>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:52" x14ac:dyDescent="0.45">
@@ -5871,79 +5869,79 @@
         <v>0</v>
       </c>
       <c r="B69" s="1">
-        <f t="shared" ref="B69:T69" si="47">B67+B68+C67</f>
+        <f t="shared" ref="B69:T69" si="30">B67+B68+C67</f>
         <v>0</v>
       </c>
       <c r="C69" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="D69" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="E69" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="F69" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="G69" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
       <c r="H69" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="I69" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
       <c r="J69" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="30"/>
         <v>5</v>
       </c>
       <c r="K69" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="30"/>
         <v>4</v>
       </c>
       <c r="L69" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="30"/>
         <v>5</v>
       </c>
       <c r="M69" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="30"/>
         <v>6</v>
       </c>
       <c r="N69" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="30"/>
         <v>5</v>
       </c>
       <c r="O69" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
       <c r="P69" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="30"/>
         <v>4</v>
       </c>
       <c r="Q69" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
       <c r="R69" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="S69" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="T69" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="AR69" s="7"/>
@@ -5956,79 +5954,79 @@
         <v>0</v>
       </c>
       <c r="B70">
-        <f t="shared" ref="B70:T70" si="48">QUOTIENT(B69,3)</f>
+        <f t="shared" ref="B70:T70" si="31">QUOTIENT(B69,3)</f>
         <v>0</v>
       </c>
       <c r="C70">
-        <f t="shared" si="48"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="D70">
-        <f t="shared" si="48"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E70">
-        <f t="shared" si="48"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="F70">
-        <f t="shared" si="48"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="G70">
-        <f t="shared" si="48"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="H70">
-        <f t="shared" si="48"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="I70">
-        <f t="shared" si="48"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="J70">
-        <f t="shared" si="48"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="K70">
-        <f t="shared" si="48"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="L70">
-        <f t="shared" si="48"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="M70">
-        <f t="shared" si="48"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="N70">
-        <f t="shared" si="48"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="O70">
-        <f t="shared" si="48"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="P70">
-        <f t="shared" si="48"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="Q70">
-        <f t="shared" si="48"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="R70">
-        <f t="shared" si="48"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="S70">
-        <f t="shared" si="48"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="T70">
-        <f t="shared" si="48"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="V70">
@@ -6042,7 +6040,7 @@
         <v>1</v>
       </c>
       <c r="AC70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD70">
         <v>0</v>
@@ -6097,7 +6095,7 @@
       </c>
       <c r="AY70">
         <f>SUM(Z70:AT70)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ70">
         <v>2</v>
@@ -6109,164 +6107,164 @@
         <v>0</v>
       </c>
       <c r="B71">
-        <f t="shared" ref="B71:T71" si="49">MOD(B69,3)</f>
+        <f t="shared" ref="B71:T71" si="32">MOD(B69,3)</f>
         <v>0</v>
       </c>
       <c r="C71">
-        <f t="shared" si="49"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="D71">
-        <f t="shared" si="49"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="E71">
-        <f t="shared" si="49"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="F71">
-        <f t="shared" si="49"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="G71">
-        <f t="shared" si="49"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="H71">
-        <f t="shared" si="49"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
       <c r="I71">
-        <f t="shared" si="49"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="J71">
-        <f t="shared" si="49"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
       <c r="K71">
-        <f t="shared" si="49"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="L71">
-        <f t="shared" si="49"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
       <c r="M71">
-        <f t="shared" si="49"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N71">
-        <f t="shared" si="49"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
       <c r="O71">
-        <f t="shared" si="49"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="P71">
-        <f t="shared" si="49"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="Q71">
-        <f t="shared" si="49"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="R71">
-        <f t="shared" si="49"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="S71">
-        <f t="shared" si="49"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
       <c r="T71">
-        <f t="shared" si="49"/>
-        <v>1</v>
-      </c>
-      <c r="Z71" s="12">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="Z71">
         <f>Z68-Z70*2</f>
         <v>0</v>
       </c>
       <c r="AA71">
-        <f t="shared" ref="AA71:AT71" si="50">AA68-AA70*2</f>
+        <f t="shared" ref="AA71:AT71" si="33">AA68-AA70*2</f>
         <v>0</v>
       </c>
       <c r="AB71">
-        <f t="shared" si="50"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AC71">
-        <f t="shared" si="50"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AD71">
-        <f t="shared" si="50"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AE71">
-        <f t="shared" si="50"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AF71">
-        <f t="shared" si="50"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AG71">
-        <f t="shared" si="50"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AH71">
-        <f t="shared" si="50"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AI71">
-        <f t="shared" si="50"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AJ71">
-        <f t="shared" si="50"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AK71">
-        <f t="shared" si="50"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AL71">
-        <f t="shared" si="50"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AM71">
-        <f t="shared" si="50"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AN71">
-        <f t="shared" si="50"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AO71">
-        <f t="shared" si="50"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AP71">
-        <f t="shared" si="50"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AQ71">
-        <f t="shared" si="50"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AR71" s="7">
-        <f t="shared" si="50"/>
+        <f t="shared" si="33"/>
         <v>4</v>
       </c>
       <c r="AS71" s="7">
-        <f t="shared" si="50"/>
+        <f t="shared" si="33"/>
         <v>2</v>
       </c>
       <c r="AT71" s="7">
-        <f t="shared" si="50"/>
-        <v>5</v>
+        <f t="shared" si="33"/>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:52" x14ac:dyDescent="0.45">
@@ -6275,82 +6273,81 @@
         <v>0</v>
       </c>
       <c r="B72" s="1">
-        <f t="shared" ref="B72:T72" si="51">B70+B71+C70</f>
+        <f t="shared" ref="B72:T72" si="34">B70+B71+C70</f>
         <v>0</v>
       </c>
       <c r="C72" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="D72" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="E72" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="F72" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="34"/>
         <v>2</v>
       </c>
       <c r="G72" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="H72" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="34"/>
         <v>3</v>
       </c>
       <c r="I72" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="34"/>
         <v>2</v>
       </c>
       <c r="J72" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="34"/>
         <v>4</v>
       </c>
       <c r="K72" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="34"/>
         <v>3</v>
       </c>
       <c r="L72" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="M72" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="34"/>
         <v>3</v>
       </c>
       <c r="N72" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="34"/>
         <v>4</v>
       </c>
       <c r="O72" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="34"/>
         <v>2</v>
       </c>
       <c r="P72" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="34"/>
         <v>3</v>
       </c>
       <c r="Q72" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="R72" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="S72" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="34"/>
         <v>2</v>
       </c>
       <c r="T72" s="1">
-        <f t="shared" si="51"/>
-        <v>1</v>
-      </c>
-      <c r="Z72" s="12"/>
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
       <c r="AR72" s="7"/>
       <c r="AS72" s="7"/>
       <c r="AT72" s="7"/>
@@ -6361,99 +6358,99 @@
         <v>0</v>
       </c>
       <c r="B73">
-        <f t="shared" ref="B73:T73" si="52">QUOTIENT(B72,3)</f>
+        <f t="shared" ref="B73:T73" si="35">QUOTIENT(B72,3)</f>
         <v>0</v>
       </c>
       <c r="C73">
-        <f t="shared" si="52"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="D73">
-        <f t="shared" si="52"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="E73">
-        <f t="shared" si="52"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="F73">
-        <f t="shared" si="52"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="G73">
-        <f t="shared" si="52"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H73">
-        <f t="shared" si="52"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="I73">
-        <f t="shared" si="52"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="J73">
-        <f t="shared" si="52"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="K73">
-        <f t="shared" si="52"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="L73">
-        <f t="shared" si="52"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="M73">
-        <f t="shared" si="52"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="N73">
-        <f t="shared" si="52"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="O73">
-        <f t="shared" si="52"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="P73">
-        <f t="shared" si="52"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="Q73">
-        <f t="shared" si="52"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R73">
-        <f t="shared" si="52"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="S73">
-        <f t="shared" si="52"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="T73">
-        <f t="shared" si="52"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="V73">
         <f>SUM(B73:U73)</f>
         <v>7</v>
       </c>
-      <c r="Z73" s="12">
+      <c r="Z73">
         <f>Z70+AA70+Z67+AA67+Z61+AA61+AB61+Z58+AA58+AB58+Z55+AA55+AB55+Z52+AA52+AB52+AC52+Z49+AA49+AB49+AC49+Z46+AA46+AB46+AC46+Z43+AA43+AB43+AC43+Z40+AA40+AB40+AC40+Z37+AA37+AB37+AC37++Z64+AA64+AB64+Z71</f>
         <v>0</v>
       </c>
       <c r="AA73" s="1">
-        <f t="shared" ref="AA73:AE73" si="53">AA70+AB70+AA67+AB67+AA61+AB61+AC61+AA58+AB58+AC58+AA55+AB55+AC55+AA52+AB52+AC52+AD52+AA49+AB49+AC49+AD49+AA46+AB46+AC46+AD46+AA43+AB43+AC43+AD43+AA40+AB40+AC40+AD40+AA37+AB37+AC37+AD37++AA64+AB64+AC64+AA71</f>
+        <f t="shared" ref="AA73:AE73" si="36">AA70+AB70+AA67+AB67+AA61+AB61+AC61+AA58+AB58+AC58+AA55+AB55+AC55+AA52+AB52+AC52+AD52+AA49+AB49+AC49+AD49+AA46+AB46+AC46+AD46+AA43+AB43+AC43+AD43+AA40+AB40+AC40+AD40+AA37+AB37+AC37+AD37++AA64+AB64+AC64+AA71</f>
         <v>1</v>
       </c>
       <c r="AB73" s="1">
-        <f t="shared" si="53"/>
-        <v>3</v>
+        <f t="shared" si="36"/>
+        <v>2</v>
       </c>
       <c r="AC73" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="36"/>
         <v>3</v>
       </c>
       <c r="AD73" s="1">
@@ -6461,67 +6458,67 @@
         <v>4</v>
       </c>
       <c r="AE73" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="36"/>
         <v>4</v>
       </c>
       <c r="AF73" s="1">
-        <f t="shared" ref="AF73" si="54">AF70+AG70+AF67+AG67+AF61+AG61+AH61+AF58+AG58+AH58+AF55+AG55+AH55+AF52+AG52+AH52+AI52+AF49+AG49+AH49+AI49+AF46+AG46+AH46+AI46+AF43+AG43+AH43+AI43+AF40+AG40+AH40+AI40+AF37+AG37+AH37+AI37++AF64+AG64+AH64+AF71</f>
+        <f t="shared" ref="AF73" si="37">AF70+AG70+AF67+AG67+AF61+AG61+AH61+AF58+AG58+AH58+AF55+AG55+AH55+AF52+AG52+AH52+AI52+AF49+AG49+AH49+AI49+AF46+AG46+AH46+AI46+AF43+AG43+AH43+AI43+AF40+AG40+AH40+AI40+AF37+AG37+AH37+AI37++AF64+AG64+AH64+AF71</f>
         <v>4</v>
       </c>
       <c r="AG73" s="1">
-        <f t="shared" ref="AG73" si="55">AG70+AH70+AG67+AH67+AG61+AH61+AI61+AG58+AH58+AI58+AG55+AH55+AI55+AG52+AH52+AI52+AJ52+AG49+AH49+AI49+AJ49+AG46+AH46+AI46+AJ46+AG43+AH43+AI43+AJ43+AG40+AH40+AI40+AJ40+AG37+AH37+AI37+AJ37++AG64+AH64+AI64+AG71</f>
+        <f t="shared" ref="AG73" si="38">AG70+AH70+AG67+AH67+AG61+AH61+AI61+AG58+AH58+AI58+AG55+AH55+AI55+AG52+AH52+AI52+AJ52+AG49+AH49+AI49+AJ49+AG46+AH46+AI46+AJ46+AG43+AH43+AI43+AJ43+AG40+AH40+AI40+AJ40+AG37+AH37+AI37+AJ37++AG64+AH64+AI64+AG71</f>
         <v>4</v>
       </c>
       <c r="AH73" s="1">
-        <f t="shared" ref="AH73" si="56">AH70+AI70+AH67+AI67+AH61+AI61+AJ61+AH58+AI58+AJ58+AH55+AI55+AJ55+AH52+AI52+AJ52+AK52+AH49+AI49+AJ49+AK49+AH46+AI46+AJ46+AK46+AH43+AI43+AJ43+AK43+AH40+AI40+AJ40+AK40+AH37+AI37+AJ37+AK37++AH64+AI64+AJ64+AH71</f>
+        <f t="shared" ref="AH73" si="39">AH70+AI70+AH67+AI67+AH61+AI61+AJ61+AH58+AI58+AJ58+AH55+AI55+AJ55+AH52+AI52+AJ52+AK52+AH49+AI49+AJ49+AK49+AH46+AI46+AJ46+AK46+AH43+AI43+AJ43+AK43+AH40+AI40+AJ40+AK40+AH37+AI37+AJ37+AK37++AH64+AI64+AJ64+AH71</f>
         <v>4</v>
       </c>
       <c r="AI73" s="1">
-        <f t="shared" ref="AI73:AJ73" si="57">AI70+AJ70+AI67+AJ67+AI61+AJ61+AK61+AI58+AJ58+AK58+AI55+AJ55+AK55+AI52+AJ52+AK52+AL52+AI49+AJ49+AK49+AL49+AI46+AJ46+AK46+AL46+AI43+AJ43+AK43+AL43+AI40+AJ40+AK40+AL40+AI37+AJ37+AK37+AL37++AI64+AJ64+AK64+AI71</f>
+        <f t="shared" ref="AI73:AJ73" si="40">AI70+AJ70+AI67+AJ67+AI61+AJ61+AK61+AI58+AJ58+AK58+AI55+AJ55+AK55+AI52+AJ52+AK52+AL52+AI49+AJ49+AK49+AL49+AI46+AJ46+AK46+AL46+AI43+AJ43+AK43+AL43+AI40+AJ40+AK40+AL40+AI37+AJ37+AK37+AL37++AI64+AJ64+AK64+AI71</f>
         <v>4</v>
       </c>
       <c r="AJ73" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="40"/>
         <v>4</v>
       </c>
       <c r="AK73" s="1">
-        <f t="shared" ref="AK73" si="58">AK70+AL70+AK67+AL67+AK61+AL61+AM61+AK58+AL58+AM58+AK55+AL55+AM55+AK52+AL52+AM52+AN52+AK49+AL49+AM49+AN49+AK46+AL46+AM46+AN46+AK43+AL43+AM43+AN43+AK40+AL40+AM40+AN40+AK37+AL37+AM37+AN37++AK64+AL64+AM64+AK71</f>
+        <f t="shared" ref="AK73" si="41">AK70+AL70+AK67+AL67+AK61+AL61+AM61+AK58+AL58+AM58+AK55+AL55+AM55+AK52+AL52+AM52+AN52+AK49+AL49+AM49+AN49+AK46+AL46+AM46+AN46+AK43+AL43+AM43+AN43+AK40+AL40+AM40+AN40+AK37+AL37+AM37+AN37++AK64+AL64+AM64+AK71</f>
         <v>4</v>
       </c>
       <c r="AL73" s="1">
-        <f t="shared" ref="AL73" si="59">AL70+AM70+AL67+AM67+AL61+AM61+AN61+AL58+AM58+AN58+AL55+AM55+AN55+AL52+AM52+AN52+AO52+AL49+AM49+AN49+AO49+AL46+AM46+AN46+AO46+AL43+AM43+AN43+AO43+AL40+AM40+AN40+AO40+AL37+AM37+AN37+AO37++AL64+AM64+AN64+AL71</f>
+        <f t="shared" ref="AL73" si="42">AL70+AM70+AL67+AM67+AL61+AM61+AN61+AL58+AM58+AN58+AL55+AM55+AN55+AL52+AM52+AN52+AO52+AL49+AM49+AN49+AO49+AL46+AM46+AN46+AO46+AL43+AM43+AN43+AO43+AL40+AM40+AN40+AO40+AL37+AM37+AN37+AO37++AL64+AM64+AN64+AL71</f>
         <v>4</v>
       </c>
       <c r="AM73" s="1">
-        <f t="shared" ref="AM73" si="60">AM70+AN70+AM67+AN67+AM61+AN61+AO61+AM58+AN58+AO58+AM55+AN55+AO55+AM52+AN52+AO52+AP52+AM49+AN49+AO49+AP49+AM46+AN46+AO46+AP46+AM43+AN43+AO43+AP43+AM40+AN40+AO40+AP40+AM37+AN37+AO37+AP37++AM64+AN64+AO64+AM71</f>
+        <f t="shared" ref="AM73" si="43">AM70+AN70+AM67+AN67+AM61+AN61+AO61+AM58+AN58+AO58+AM55+AN55+AO55+AM52+AN52+AO52+AP52+AM49+AN49+AO49+AP49+AM46+AN46+AO46+AP46+AM43+AN43+AO43+AP43+AM40+AN40+AO40+AP40+AM37+AN37+AO37+AP37++AM64+AN64+AO64+AM71</f>
         <v>4</v>
       </c>
       <c r="AN73" s="1">
-        <f t="shared" ref="AN73:AO73" si="61">AN70+AO70+AN67+AO67+AN61+AO61+AP61+AN58+AO58+AP58+AN55+AO55+AP55+AN52+AO52+AP52+AQ52+AN49+AO49+AP49+AQ49+AN46+AO46+AP46+AQ46+AN43+AO43+AP43+AQ43+AN40+AO40+AP40+AQ40+AN37+AO37+AP37+AQ37++AN64+AO64+AP64+AN71</f>
+        <f t="shared" ref="AN73:AO73" si="44">AN70+AO70+AN67+AO67+AN61+AO61+AP61+AN58+AO58+AP58+AN55+AO55+AP55+AN52+AO52+AP52+AQ52+AN49+AO49+AP49+AQ49+AN46+AO46+AP46+AQ46+AN43+AO43+AP43+AQ43+AN40+AO40+AP40+AQ40+AN37+AO37+AP37+AQ37++AN64+AO64+AP64+AN71</f>
         <v>3</v>
       </c>
       <c r="AO73" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="44"/>
         <v>3</v>
       </c>
       <c r="AP73" s="1">
-        <f t="shared" ref="AP73" si="62">AP70+AQ70+AP67+AQ67+AP61+AQ61+AR61+AP58+AQ58+AR58+AP55+AQ55+AR55+AP52+AQ52+AR52+AS52+AP49+AQ49+AR49+AS49+AP46+AQ46+AR46+AS46+AP43+AQ43+AR43+AS43+AP40+AQ40+AR40+AS40+AP37+AQ37+AR37+AS37++AP64+AQ64+AR64+AP71</f>
+        <f t="shared" ref="AP73" si="45">AP70+AQ70+AP67+AQ67+AP61+AQ61+AR61+AP58+AQ58+AR58+AP55+AQ55+AR55+AP52+AQ52+AR52+AS52+AP49+AQ49+AR49+AS49+AP46+AQ46+AR46+AS46+AP43+AQ43+AR43+AS43+AP40+AQ40+AR40+AS40+AP37+AQ37+AR37+AS37++AP64+AQ64+AR64+AP71</f>
         <v>2</v>
       </c>
       <c r="AQ73" s="1">
-        <f t="shared" ref="AQ73" si="63">AQ70+AR70+AQ67+AR67+AQ61+AR61+AS61+AQ58+AR58+AS58+AQ55+AR55+AS55+AQ52+AR52+AS52+AT52+AQ49+AR49+AS49+AT49+AQ46+AR46+AS46+AT46+AQ43+AR43+AS43+AT43+AQ40+AR40+AS40+AT40+AQ37+AR37+AS37+AT37++AQ64+AR64+AS64+AQ71</f>
+        <f t="shared" ref="AQ73" si="46">AQ70+AR70+AQ67+AR67+AQ61+AR61+AS61+AQ58+AR58+AS58+AQ55+AR55+AS55+AQ52+AR52+AS52+AT52+AQ49+AR49+AS49+AT49+AQ46+AR46+AS46+AT46+AQ43+AR43+AS43+AT43+AQ40+AR40+AS40+AT40+AQ37+AR37+AS37+AT37++AQ64+AR64+AS64+AQ71</f>
         <v>1</v>
       </c>
       <c r="AR73" s="7">
-        <f t="shared" ref="AR73:AT73" si="64">AR70+AS70+AR67+AS67+AR61+AS61+AT61+AR58+AS58+AT58+AR55+AS55+AT55+AR52+AS52+AT52+AU52+AR49+AS49+AT49+AU49+AR46+AS46+AT46+AU46+AR43+AS43+AT43+AU43+AR40+AS40+AT40+AU40+AR37+AS37+AT37+AU37++AR64+AS64+AT64</f>
+        <f t="shared" ref="AR73:AT73" si="47">AR70+AS70+AR67+AS67+AR61+AS61+AT61+AR58+AS58+AT58+AR55+AS55+AT55+AR52+AS52+AT52+AU52+AR49+AS49+AT49+AU49+AR46+AS46+AT46+AU46+AR43+AS43+AT43+AU43+AR40+AS40+AT40+AU40+AR37+AS37+AT37+AU37++AR64+AS64+AT64</f>
         <v>0</v>
       </c>
       <c r="AS73" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AT73" s="7">
-        <f t="shared" si="64"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AV73" t="s">
@@ -6537,82 +6534,81 @@
         <v>0</v>
       </c>
       <c r="B74">
-        <f t="shared" ref="B74:T74" si="65">MOD(B72,3)</f>
+        <f t="shared" ref="B74:T74" si="48">MOD(B72,3)</f>
         <v>0</v>
       </c>
       <c r="C74">
-        <f t="shared" si="65"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="D74">
-        <f t="shared" si="65"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="E74">
-        <f t="shared" si="65"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="F74">
-        <f t="shared" si="65"/>
+        <f t="shared" si="48"/>
         <v>2</v>
       </c>
       <c r="G74">
-        <f t="shared" si="65"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="H74">
-        <f t="shared" si="65"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="I74">
-        <f t="shared" si="65"/>
+        <f t="shared" si="48"/>
         <v>2</v>
       </c>
       <c r="J74">
-        <f t="shared" si="65"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="K74">
-        <f t="shared" si="65"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="L74">
-        <f t="shared" si="65"/>
+        <f t="shared" si="48"/>
         <v>2</v>
       </c>
       <c r="M74">
-        <f t="shared" si="65"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="N74">
-        <f t="shared" si="65"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="O74">
-        <f t="shared" si="65"/>
+        <f t="shared" si="48"/>
         <v>2</v>
       </c>
       <c r="P74">
-        <f t="shared" si="65"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="Q74">
-        <f t="shared" si="65"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="R74">
-        <f t="shared" si="65"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="S74">
-        <f t="shared" si="65"/>
+        <f t="shared" si="48"/>
         <v>2</v>
       </c>
       <c r="T74">
-        <f t="shared" si="65"/>
-        <v>1</v>
-      </c>
-      <c r="Z74" s="12"/>
+        <f t="shared" si="48"/>
+        <v>1</v>
+      </c>
       <c r="AA74" s="11"/>
       <c r="AB74" s="11"/>
       <c r="AC74" s="11"/>
@@ -6634,79 +6630,79 @@
         <v>0</v>
       </c>
       <c r="B75" s="1">
-        <f t="shared" ref="B75:T75" si="66">B73+B74+C73</f>
+        <f t="shared" ref="B75:T75" si="49">B73+B74+C73</f>
         <v>0</v>
       </c>
       <c r="C75" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="D75" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="E75" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="F75" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="49"/>
         <v>2</v>
       </c>
       <c r="G75" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="49"/>
         <v>2</v>
       </c>
       <c r="H75" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="I75" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="49"/>
         <v>3</v>
       </c>
       <c r="J75" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="49"/>
         <v>3</v>
       </c>
       <c r="K75" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="49"/>
         <v>2</v>
       </c>
       <c r="L75" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="49"/>
         <v>4</v>
       </c>
       <c r="M75" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="49"/>
         <v>2</v>
       </c>
       <c r="N75" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="49"/>
         <v>2</v>
       </c>
       <c r="O75" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="49"/>
         <v>3</v>
       </c>
       <c r="P75" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="Q75" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="R75" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="S75" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="49"/>
         <v>2</v>
       </c>
       <c r="T75" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="Z75" t="s">
@@ -6719,79 +6715,79 @@
         <v>0</v>
       </c>
       <c r="B76">
-        <f t="shared" ref="B76" si="67">QUOTIENT(B75,3)</f>
+        <f t="shared" ref="B76" si="50">QUOTIENT(B75,3)</f>
         <v>0</v>
       </c>
       <c r="C76">
-        <f t="shared" ref="C76" si="68">QUOTIENT(C75,3)</f>
+        <f t="shared" ref="C76" si="51">QUOTIENT(C75,3)</f>
         <v>0</v>
       </c>
       <c r="D76">
-        <f t="shared" ref="D76" si="69">QUOTIENT(D75,3)</f>
+        <f t="shared" ref="D76" si="52">QUOTIENT(D75,3)</f>
         <v>0</v>
       </c>
       <c r="E76">
-        <f t="shared" ref="E76" si="70">QUOTIENT(E75,3)</f>
+        <f t="shared" ref="E76" si="53">QUOTIENT(E75,3)</f>
         <v>0</v>
       </c>
       <c r="F76">
-        <f t="shared" ref="F76" si="71">QUOTIENT(F75,3)</f>
+        <f t="shared" ref="F76" si="54">QUOTIENT(F75,3)</f>
         <v>0</v>
       </c>
       <c r="G76">
-        <f t="shared" ref="G76" si="72">QUOTIENT(G75,3)</f>
+        <f t="shared" ref="G76" si="55">QUOTIENT(G75,3)</f>
         <v>0</v>
       </c>
       <c r="H76">
-        <f t="shared" ref="H76" si="73">QUOTIENT(H75,3)</f>
+        <f t="shared" ref="H76" si="56">QUOTIENT(H75,3)</f>
         <v>0</v>
       </c>
       <c r="I76">
-        <f t="shared" ref="I76" si="74">QUOTIENT(I75,3)</f>
+        <f t="shared" ref="I76" si="57">QUOTIENT(I75,3)</f>
         <v>1</v>
       </c>
       <c r="J76">
-        <f t="shared" ref="J76" si="75">QUOTIENT(J75,3)</f>
+        <f t="shared" ref="J76" si="58">QUOTIENT(J75,3)</f>
         <v>1</v>
       </c>
       <c r="K76">
-        <f t="shared" ref="K76" si="76">QUOTIENT(K75,3)</f>
+        <f t="shared" ref="K76" si="59">QUOTIENT(K75,3)</f>
         <v>0</v>
       </c>
       <c r="L76">
-        <f t="shared" ref="L76" si="77">QUOTIENT(L75,3)</f>
+        <f t="shared" ref="L76" si="60">QUOTIENT(L75,3)</f>
         <v>1</v>
       </c>
       <c r="M76">
-        <f t="shared" ref="M76" si="78">QUOTIENT(M75,3)</f>
+        <f t="shared" ref="M76" si="61">QUOTIENT(M75,3)</f>
         <v>0</v>
       </c>
       <c r="N76">
-        <f t="shared" ref="N76" si="79">QUOTIENT(N75,3)</f>
+        <f t="shared" ref="N76" si="62">QUOTIENT(N75,3)</f>
         <v>0</v>
       </c>
       <c r="O76">
-        <f t="shared" ref="O76" si="80">QUOTIENT(O75,3)</f>
+        <f t="shared" ref="O76" si="63">QUOTIENT(O75,3)</f>
         <v>1</v>
       </c>
       <c r="P76">
-        <f t="shared" ref="P76" si="81">QUOTIENT(P75,3)</f>
+        <f t="shared" ref="P76" si="64">QUOTIENT(P75,3)</f>
         <v>0</v>
       </c>
       <c r="Q76">
-        <f t="shared" ref="Q76" si="82">QUOTIENT(Q75,3)</f>
+        <f t="shared" ref="Q76" si="65">QUOTIENT(Q75,3)</f>
         <v>0</v>
       </c>
       <c r="R76">
-        <f t="shared" ref="R76" si="83">QUOTIENT(R75,3)</f>
+        <f t="shared" ref="R76" si="66">QUOTIENT(R75,3)</f>
         <v>0</v>
       </c>
       <c r="S76">
-        <f t="shared" ref="S76" si="84">QUOTIENT(S75,3)</f>
+        <f t="shared" ref="S76" si="67">QUOTIENT(S75,3)</f>
         <v>0</v>
       </c>
       <c r="T76">
-        <f t="shared" ref="T76" si="85">QUOTIENT(T75,3)</f>
+        <f t="shared" ref="T76" si="68">QUOTIENT(T75,3)</f>
         <v>0</v>
       </c>
       <c r="V76">
@@ -6853,79 +6849,79 @@
         <v>0</v>
       </c>
       <c r="B77">
-        <f t="shared" ref="B77:T77" si="86">MOD(B75,3)</f>
+        <f t="shared" ref="B77:T77" si="69">MOD(B75,3)</f>
         <v>0</v>
       </c>
       <c r="C77">
-        <f t="shared" si="86"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="D77">
-        <f t="shared" si="86"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="E77">
-        <f t="shared" si="86"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="F77">
-        <f t="shared" si="86"/>
+        <f t="shared" si="69"/>
         <v>2</v>
       </c>
       <c r="G77">
-        <f t="shared" si="86"/>
+        <f t="shared" si="69"/>
         <v>2</v>
       </c>
       <c r="H77">
-        <f t="shared" si="86"/>
+        <f t="shared" si="69"/>
         <v>1</v>
       </c>
       <c r="I77">
-        <f t="shared" si="86"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="J77">
-        <f t="shared" si="86"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="K77">
-        <f t="shared" si="86"/>
+        <f t="shared" si="69"/>
         <v>2</v>
       </c>
       <c r="L77">
-        <f t="shared" si="86"/>
+        <f t="shared" si="69"/>
         <v>1</v>
       </c>
       <c r="M77">
-        <f t="shared" si="86"/>
+        <f t="shared" si="69"/>
         <v>2</v>
       </c>
       <c r="N77">
-        <f t="shared" si="86"/>
+        <f t="shared" si="69"/>
         <v>2</v>
       </c>
       <c r="O77">
-        <f t="shared" si="86"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="P77">
-        <f t="shared" si="86"/>
+        <f t="shared" si="69"/>
         <v>1</v>
       </c>
       <c r="Q77">
-        <f t="shared" si="86"/>
+        <f t="shared" si="69"/>
         <v>1</v>
       </c>
       <c r="R77">
-        <f t="shared" si="86"/>
+        <f t="shared" si="69"/>
         <v>1</v>
       </c>
       <c r="S77">
-        <f t="shared" si="86"/>
+        <f t="shared" si="69"/>
         <v>2</v>
       </c>
       <c r="T77">
-        <f t="shared" si="86"/>
+        <f t="shared" si="69"/>
         <v>1</v>
       </c>
       <c r="Y77" t="s">
@@ -6986,79 +6982,79 @@
         <v>0</v>
       </c>
       <c r="B78" s="1">
-        <f t="shared" ref="B78" si="87">B76+B77+C76</f>
+        <f t="shared" ref="B78" si="70">B76+B77+C76</f>
         <v>0</v>
       </c>
       <c r="C78" s="1">
-        <f t="shared" ref="C78" si="88">C76+C77+D76</f>
+        <f t="shared" ref="C78" si="71">C76+C77+D76</f>
         <v>0</v>
       </c>
       <c r="D78" s="1">
-        <f t="shared" ref="D78" si="89">D76+D77+E76</f>
+        <f t="shared" ref="D78" si="72">D76+D77+E76</f>
         <v>0</v>
       </c>
       <c r="E78" s="1">
-        <f t="shared" ref="E78" si="90">E76+E77+F76</f>
+        <f t="shared" ref="E78" si="73">E76+E77+F76</f>
         <v>0</v>
       </c>
       <c r="F78" s="1">
-        <f t="shared" ref="F78" si="91">F76+F77+G76</f>
+        <f t="shared" ref="F78" si="74">F76+F77+G76</f>
         <v>2</v>
       </c>
       <c r="G78" s="1">
-        <f t="shared" ref="G78" si="92">G76+G77+H76</f>
+        <f t="shared" ref="G78" si="75">G76+G77+H76</f>
         <v>2</v>
       </c>
       <c r="H78" s="1">
-        <f t="shared" ref="H78" si="93">H76+H77+I76</f>
+        <f t="shared" ref="H78" si="76">H76+H77+I76</f>
         <v>2</v>
       </c>
       <c r="I78" s="1">
-        <f t="shared" ref="I78" si="94">I76+I77+J76</f>
+        <f t="shared" ref="I78" si="77">I76+I77+J76</f>
         <v>2</v>
       </c>
       <c r="J78" s="1">
-        <f t="shared" ref="J78" si="95">J76+J77+K76</f>
+        <f t="shared" ref="J78" si="78">J76+J77+K76</f>
         <v>1</v>
       </c>
       <c r="K78" s="1">
-        <f t="shared" ref="K78" si="96">K76+K77+L76</f>
+        <f t="shared" ref="K78" si="79">K76+K77+L76</f>
         <v>3</v>
       </c>
       <c r="L78" s="1">
-        <f t="shared" ref="L78" si="97">L76+L77+M76</f>
+        <f t="shared" ref="L78" si="80">L76+L77+M76</f>
         <v>2</v>
       </c>
       <c r="M78" s="1">
-        <f t="shared" ref="M78" si="98">M76+M77+N76</f>
+        <f t="shared" ref="M78" si="81">M76+M77+N76</f>
         <v>2</v>
       </c>
       <c r="N78" s="1">
-        <f t="shared" ref="N78" si="99">N76+N77+O76</f>
+        <f t="shared" ref="N78" si="82">N76+N77+O76</f>
         <v>3</v>
       </c>
       <c r="O78" s="1">
-        <f t="shared" ref="O78" si="100">O76+O77+P76</f>
+        <f t="shared" ref="O78" si="83">O76+O77+P76</f>
         <v>1</v>
       </c>
       <c r="P78" s="1">
-        <f t="shared" ref="P78" si="101">P76+P77+Q76</f>
+        <f t="shared" ref="P78" si="84">P76+P77+Q76</f>
         <v>1</v>
       </c>
       <c r="Q78" s="1">
-        <f t="shared" ref="Q78" si="102">Q76+Q77+R76</f>
+        <f t="shared" ref="Q78" si="85">Q76+Q77+R76</f>
         <v>1</v>
       </c>
       <c r="R78" s="1">
-        <f t="shared" ref="R78" si="103">R76+R77+S76</f>
+        <f t="shared" ref="R78" si="86">R76+R77+S76</f>
         <v>1</v>
       </c>
       <c r="S78" s="1">
-        <f t="shared" ref="S78" si="104">S76+S77+T76</f>
+        <f t="shared" ref="S78" si="87">S76+S77+T76</f>
         <v>2</v>
       </c>
       <c r="T78" s="1">
-        <f t="shared" ref="T78" si="105">T76+T77+U76</f>
+        <f t="shared" ref="T78" si="88">T76+T77+U76</f>
         <v>1</v>
       </c>
     </row>
@@ -7068,79 +7064,79 @@
         <v>0</v>
       </c>
       <c r="B79">
-        <f t="shared" ref="B79" si="106">QUOTIENT(B78,3)</f>
+        <f t="shared" ref="B79" si="89">QUOTIENT(B78,3)</f>
         <v>0</v>
       </c>
       <c r="C79">
-        <f t="shared" ref="C79" si="107">QUOTIENT(C78,3)</f>
+        <f t="shared" ref="C79" si="90">QUOTIENT(C78,3)</f>
         <v>0</v>
       </c>
       <c r="D79">
-        <f t="shared" ref="D79" si="108">QUOTIENT(D78,3)</f>
+        <f t="shared" ref="D79" si="91">QUOTIENT(D78,3)</f>
         <v>0</v>
       </c>
       <c r="E79">
-        <f t="shared" ref="E79" si="109">QUOTIENT(E78,3)</f>
+        <f t="shared" ref="E79" si="92">QUOTIENT(E78,3)</f>
         <v>0</v>
       </c>
       <c r="F79">
-        <f t="shared" ref="F79" si="110">QUOTIENT(F78,3)</f>
+        <f t="shared" ref="F79" si="93">QUOTIENT(F78,3)</f>
         <v>0</v>
       </c>
       <c r="G79">
-        <f t="shared" ref="G79" si="111">QUOTIENT(G78,3)</f>
+        <f t="shared" ref="G79" si="94">QUOTIENT(G78,3)</f>
         <v>0</v>
       </c>
       <c r="H79">
-        <f t="shared" ref="H79" si="112">QUOTIENT(H78,3)</f>
+        <f t="shared" ref="H79" si="95">QUOTIENT(H78,3)</f>
         <v>0</v>
       </c>
       <c r="I79">
-        <f t="shared" ref="I79" si="113">QUOTIENT(I78,3)</f>
+        <f t="shared" ref="I79" si="96">QUOTIENT(I78,3)</f>
         <v>0</v>
       </c>
       <c r="J79">
-        <f t="shared" ref="J79" si="114">QUOTIENT(J78,3)</f>
+        <f t="shared" ref="J79" si="97">QUOTIENT(J78,3)</f>
         <v>0</v>
       </c>
       <c r="K79">
-        <f t="shared" ref="K79" si="115">QUOTIENT(K78,3)</f>
+        <f t="shared" ref="K79" si="98">QUOTIENT(K78,3)</f>
         <v>1</v>
       </c>
       <c r="L79">
-        <f t="shared" ref="L79" si="116">QUOTIENT(L78,3)</f>
+        <f t="shared" ref="L79" si="99">QUOTIENT(L78,3)</f>
         <v>0</v>
       </c>
       <c r="M79">
-        <f t="shared" ref="M79" si="117">QUOTIENT(M78,3)</f>
+        <f t="shared" ref="M79" si="100">QUOTIENT(M78,3)</f>
         <v>0</v>
       </c>
       <c r="N79">
-        <f t="shared" ref="N79" si="118">QUOTIENT(N78,3)</f>
+        <f t="shared" ref="N79" si="101">QUOTIENT(N78,3)</f>
         <v>1</v>
       </c>
       <c r="O79">
-        <f t="shared" ref="O79" si="119">QUOTIENT(O78,3)</f>
+        <f t="shared" ref="O79" si="102">QUOTIENT(O78,3)</f>
         <v>0</v>
       </c>
       <c r="P79">
-        <f t="shared" ref="P79" si="120">QUOTIENT(P78,3)</f>
+        <f t="shared" ref="P79" si="103">QUOTIENT(P78,3)</f>
         <v>0</v>
       </c>
       <c r="Q79">
-        <f t="shared" ref="Q79" si="121">QUOTIENT(Q78,3)</f>
+        <f t="shared" ref="Q79" si="104">QUOTIENT(Q78,3)</f>
         <v>0</v>
       </c>
       <c r="R79">
-        <f t="shared" ref="R79" si="122">QUOTIENT(R78,3)</f>
+        <f t="shared" ref="R79" si="105">QUOTIENT(R78,3)</f>
         <v>0</v>
       </c>
       <c r="S79">
-        <f t="shared" ref="S79" si="123">QUOTIENT(S78,3)</f>
+        <f t="shared" ref="S79" si="106">QUOTIENT(S78,3)</f>
         <v>0</v>
       </c>
       <c r="T79">
-        <f t="shared" ref="T79" si="124">QUOTIENT(T78,3)</f>
+        <f t="shared" ref="T79" si="107">QUOTIENT(T78,3)</f>
         <v>0</v>
       </c>
       <c r="V79">
@@ -7199,79 +7195,79 @@
         <v>0</v>
       </c>
       <c r="B80">
-        <f t="shared" ref="B80:T80" si="125">MOD(B78,3)</f>
+        <f t="shared" ref="B80:T80" si="108">MOD(B78,3)</f>
         <v>0</v>
       </c>
       <c r="C80">
-        <f t="shared" si="125"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="D80">
-        <f t="shared" si="125"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="E80">
-        <f t="shared" si="125"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="F80">
-        <f t="shared" si="125"/>
+        <f t="shared" si="108"/>
         <v>2</v>
       </c>
       <c r="G80">
-        <f t="shared" si="125"/>
+        <f t="shared" si="108"/>
         <v>2</v>
       </c>
       <c r="H80">
-        <f t="shared" si="125"/>
+        <f t="shared" si="108"/>
         <v>2</v>
       </c>
       <c r="I80">
-        <f t="shared" si="125"/>
+        <f t="shared" si="108"/>
         <v>2</v>
       </c>
       <c r="J80">
-        <f t="shared" si="125"/>
+        <f t="shared" si="108"/>
         <v>1</v>
       </c>
       <c r="K80">
-        <f t="shared" si="125"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="L80">
-        <f t="shared" si="125"/>
+        <f t="shared" si="108"/>
         <v>2</v>
       </c>
       <c r="M80">
-        <f t="shared" si="125"/>
+        <f t="shared" si="108"/>
         <v>2</v>
       </c>
       <c r="N80">
-        <f t="shared" si="125"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="O80">
-        <f t="shared" si="125"/>
+        <f t="shared" si="108"/>
         <v>1</v>
       </c>
       <c r="P80">
-        <f t="shared" si="125"/>
+        <f t="shared" si="108"/>
         <v>1</v>
       </c>
       <c r="Q80">
-        <f t="shared" si="125"/>
+        <f t="shared" si="108"/>
         <v>1</v>
       </c>
       <c r="R80">
-        <f t="shared" si="125"/>
+        <f t="shared" si="108"/>
         <v>1</v>
       </c>
       <c r="S80">
-        <f t="shared" si="125"/>
+        <f t="shared" si="108"/>
         <v>2</v>
       </c>
       <c r="T80">
-        <f t="shared" si="125"/>
+        <f t="shared" si="108"/>
         <v>1</v>
       </c>
       <c r="Z80">
@@ -7329,79 +7325,79 @@
         <v>0</v>
       </c>
       <c r="B81" s="1">
-        <f t="shared" ref="B81" si="126">B79+B80+C79</f>
+        <f t="shared" ref="B81" si="109">B79+B80+C79</f>
         <v>0</v>
       </c>
       <c r="C81" s="1">
-        <f t="shared" ref="C81" si="127">C79+C80+D79</f>
+        <f t="shared" ref="C81" si="110">C79+C80+D79</f>
         <v>0</v>
       </c>
       <c r="D81" s="1">
-        <f t="shared" ref="D81" si="128">D79+D80+E79</f>
+        <f t="shared" ref="D81" si="111">D79+D80+E79</f>
         <v>0</v>
       </c>
       <c r="E81" s="1">
-        <f t="shared" ref="E81" si="129">E79+E80+F79</f>
+        <f t="shared" ref="E81" si="112">E79+E80+F79</f>
         <v>0</v>
       </c>
       <c r="F81" s="1">
-        <f t="shared" ref="F81" si="130">F79+F80+G79</f>
+        <f t="shared" ref="F81" si="113">F79+F80+G79</f>
         <v>2</v>
       </c>
       <c r="G81" s="1">
-        <f t="shared" ref="G81" si="131">G79+G80+H79</f>
+        <f t="shared" ref="G81" si="114">G79+G80+H79</f>
         <v>2</v>
       </c>
       <c r="H81" s="1">
-        <f t="shared" ref="H81" si="132">H79+H80+I79</f>
+        <f t="shared" ref="H81" si="115">H79+H80+I79</f>
         <v>2</v>
       </c>
       <c r="I81" s="1">
-        <f t="shared" ref="I81" si="133">I79+I80+J79</f>
+        <f t="shared" ref="I81" si="116">I79+I80+J79</f>
         <v>2</v>
       </c>
       <c r="J81" s="1">
-        <f t="shared" ref="J81" si="134">J79+J80+K79</f>
+        <f t="shared" ref="J81" si="117">J79+J80+K79</f>
         <v>2</v>
       </c>
       <c r="K81" s="1">
-        <f t="shared" ref="K81" si="135">K79+K80+L79</f>
+        <f t="shared" ref="K81" si="118">K79+K80+L79</f>
         <v>1</v>
       </c>
       <c r="L81" s="1">
-        <f t="shared" ref="L81" si="136">L79+L80+M79</f>
+        <f t="shared" ref="L81" si="119">L79+L80+M79</f>
         <v>2</v>
       </c>
       <c r="M81" s="1">
-        <f t="shared" ref="M81" si="137">M79+M80+N79</f>
+        <f t="shared" ref="M81" si="120">M79+M80+N79</f>
         <v>3</v>
       </c>
       <c r="N81" s="1">
-        <f t="shared" ref="N81" si="138">N79+N80+O79</f>
+        <f t="shared" ref="N81" si="121">N79+N80+O79</f>
         <v>1</v>
       </c>
       <c r="O81" s="1">
-        <f t="shared" ref="O81" si="139">O79+O80+P79</f>
+        <f t="shared" ref="O81" si="122">O79+O80+P79</f>
         <v>1</v>
       </c>
       <c r="P81" s="1">
-        <f t="shared" ref="P81" si="140">P79+P80+Q79</f>
+        <f t="shared" ref="P81" si="123">P79+P80+Q79</f>
         <v>1</v>
       </c>
       <c r="Q81" s="1">
-        <f t="shared" ref="Q81" si="141">Q79+Q80+R79</f>
+        <f t="shared" ref="Q81" si="124">Q79+Q80+R79</f>
         <v>1</v>
       </c>
       <c r="R81" s="1">
-        <f t="shared" ref="R81" si="142">R79+R80+S79</f>
+        <f t="shared" ref="R81" si="125">R79+R80+S79</f>
         <v>1</v>
       </c>
       <c r="S81" s="1">
-        <f t="shared" ref="S81" si="143">S79+S80+T79</f>
+        <f t="shared" ref="S81" si="126">S79+S80+T79</f>
         <v>2</v>
       </c>
       <c r="T81" s="1">
-        <f t="shared" ref="T81" si="144">T79+T80+U79</f>
+        <f t="shared" ref="T81" si="127">T79+T80+U79</f>
         <v>1</v>
       </c>
     </row>
@@ -7411,79 +7407,79 @@
         <v>0</v>
       </c>
       <c r="B82">
-        <f t="shared" ref="B82" si="145">QUOTIENT(B81,3)</f>
+        <f t="shared" ref="B82" si="128">QUOTIENT(B81,3)</f>
         <v>0</v>
       </c>
       <c r="C82">
-        <f t="shared" ref="C82" si="146">QUOTIENT(C81,3)</f>
+        <f t="shared" ref="C82" si="129">QUOTIENT(C81,3)</f>
         <v>0</v>
       </c>
       <c r="D82">
-        <f t="shared" ref="D82" si="147">QUOTIENT(D81,3)</f>
+        <f t="shared" ref="D82" si="130">QUOTIENT(D81,3)</f>
         <v>0</v>
       </c>
       <c r="E82">
-        <f t="shared" ref="E82" si="148">QUOTIENT(E81,3)</f>
+        <f t="shared" ref="E82" si="131">QUOTIENT(E81,3)</f>
         <v>0</v>
       </c>
       <c r="F82">
-        <f t="shared" ref="F82" si="149">QUOTIENT(F81,3)</f>
+        <f t="shared" ref="F82" si="132">QUOTIENT(F81,3)</f>
         <v>0</v>
       </c>
       <c r="G82">
-        <f t="shared" ref="G82" si="150">QUOTIENT(G81,3)</f>
+        <f t="shared" ref="G82" si="133">QUOTIENT(G81,3)</f>
         <v>0</v>
       </c>
       <c r="H82">
-        <f t="shared" ref="H82" si="151">QUOTIENT(H81,3)</f>
+        <f t="shared" ref="H82" si="134">QUOTIENT(H81,3)</f>
         <v>0</v>
       </c>
       <c r="I82">
-        <f t="shared" ref="I82" si="152">QUOTIENT(I81,3)</f>
+        <f t="shared" ref="I82" si="135">QUOTIENT(I81,3)</f>
         <v>0</v>
       </c>
       <c r="J82">
-        <f t="shared" ref="J82" si="153">QUOTIENT(J81,3)</f>
+        <f t="shared" ref="J82" si="136">QUOTIENT(J81,3)</f>
         <v>0</v>
       </c>
       <c r="K82">
-        <f t="shared" ref="K82" si="154">QUOTIENT(K81,3)</f>
+        <f t="shared" ref="K82" si="137">QUOTIENT(K81,3)</f>
         <v>0</v>
       </c>
       <c r="L82">
-        <f t="shared" ref="L82" si="155">QUOTIENT(L81,3)</f>
+        <f t="shared" ref="L82" si="138">QUOTIENT(L81,3)</f>
         <v>0</v>
       </c>
       <c r="M82">
-        <f t="shared" ref="M82" si="156">QUOTIENT(M81,3)</f>
+        <f t="shared" ref="M82" si="139">QUOTIENT(M81,3)</f>
         <v>1</v>
       </c>
       <c r="N82">
-        <f t="shared" ref="N82" si="157">QUOTIENT(N81,3)</f>
+        <f t="shared" ref="N82" si="140">QUOTIENT(N81,3)</f>
         <v>0</v>
       </c>
       <c r="O82">
-        <f t="shared" ref="O82" si="158">QUOTIENT(O81,3)</f>
+        <f t="shared" ref="O82" si="141">QUOTIENT(O81,3)</f>
         <v>0</v>
       </c>
       <c r="P82">
-        <f t="shared" ref="P82" si="159">QUOTIENT(P81,3)</f>
+        <f t="shared" ref="P82" si="142">QUOTIENT(P81,3)</f>
         <v>0</v>
       </c>
       <c r="Q82">
-        <f t="shared" ref="Q82" si="160">QUOTIENT(Q81,3)</f>
+        <f t="shared" ref="Q82" si="143">QUOTIENT(Q81,3)</f>
         <v>0</v>
       </c>
       <c r="R82">
-        <f t="shared" ref="R82" si="161">QUOTIENT(R81,3)</f>
+        <f t="shared" ref="R82" si="144">QUOTIENT(R81,3)</f>
         <v>0</v>
       </c>
       <c r="S82">
-        <f t="shared" ref="S82" si="162">QUOTIENT(S81,3)</f>
+        <f t="shared" ref="S82" si="145">QUOTIENT(S81,3)</f>
         <v>0</v>
       </c>
       <c r="T82">
-        <f t="shared" ref="T82" si="163">QUOTIENT(T81,3)</f>
+        <f t="shared" ref="T82" si="146">QUOTIENT(T81,3)</f>
         <v>0</v>
       </c>
       <c r="V82">
@@ -7497,79 +7493,79 @@
         <v>0</v>
       </c>
       <c r="B83">
-        <f t="shared" ref="B83:T83" si="164">MOD(B81,3)</f>
+        <f t="shared" ref="B83:T83" si="147">MOD(B81,3)</f>
         <v>0</v>
       </c>
       <c r="C83">
-        <f t="shared" si="164"/>
+        <f t="shared" si="147"/>
         <v>0</v>
       </c>
       <c r="D83">
-        <f t="shared" si="164"/>
+        <f t="shared" si="147"/>
         <v>0</v>
       </c>
       <c r="E83">
-        <f t="shared" si="164"/>
+        <f t="shared" si="147"/>
         <v>0</v>
       </c>
       <c r="F83">
-        <f t="shared" si="164"/>
+        <f t="shared" si="147"/>
         <v>2</v>
       </c>
       <c r="G83">
-        <f t="shared" si="164"/>
+        <f t="shared" si="147"/>
         <v>2</v>
       </c>
       <c r="H83">
-        <f t="shared" si="164"/>
+        <f t="shared" si="147"/>
         <v>2</v>
       </c>
       <c r="I83">
-        <f t="shared" si="164"/>
+        <f t="shared" si="147"/>
         <v>2</v>
       </c>
       <c r="J83">
-        <f t="shared" si="164"/>
+        <f t="shared" si="147"/>
         <v>2</v>
       </c>
       <c r="K83">
-        <f t="shared" si="164"/>
+        <f t="shared" si="147"/>
         <v>1</v>
       </c>
       <c r="L83">
-        <f t="shared" si="164"/>
+        <f t="shared" si="147"/>
         <v>2</v>
       </c>
       <c r="M83">
-        <f t="shared" si="164"/>
+        <f t="shared" si="147"/>
         <v>0</v>
       </c>
       <c r="N83">
-        <f t="shared" si="164"/>
+        <f t="shared" si="147"/>
         <v>1</v>
       </c>
       <c r="O83">
-        <f t="shared" si="164"/>
+        <f t="shared" si="147"/>
         <v>1</v>
       </c>
       <c r="P83">
-        <f t="shared" si="164"/>
+        <f t="shared" si="147"/>
         <v>1</v>
       </c>
       <c r="Q83">
-        <f t="shared" si="164"/>
+        <f t="shared" si="147"/>
         <v>1</v>
       </c>
       <c r="R83">
-        <f t="shared" si="164"/>
+        <f t="shared" si="147"/>
         <v>1</v>
       </c>
       <c r="S83">
-        <f t="shared" si="164"/>
+        <f t="shared" si="147"/>
         <v>2</v>
       </c>
       <c r="T83">
-        <f t="shared" si="164"/>
+        <f t="shared" si="147"/>
         <v>1</v>
       </c>
     </row>
@@ -7579,79 +7575,79 @@
         <v>0</v>
       </c>
       <c r="B84" s="1">
-        <f t="shared" ref="B84" si="165">B82+B83+C82</f>
+        <f t="shared" ref="B84" si="148">B82+B83+C82</f>
         <v>0</v>
       </c>
       <c r="C84" s="1">
-        <f t="shared" ref="C84" si="166">C82+C83+D82</f>
+        <f t="shared" ref="C84" si="149">C82+C83+D82</f>
         <v>0</v>
       </c>
       <c r="D84" s="1">
-        <f t="shared" ref="D84" si="167">D82+D83+E82</f>
+        <f t="shared" ref="D84" si="150">D82+D83+E82</f>
         <v>0</v>
       </c>
       <c r="E84" s="1">
-        <f t="shared" ref="E84" si="168">E82+E83+F82</f>
+        <f t="shared" ref="E84" si="151">E82+E83+F82</f>
         <v>0</v>
       </c>
       <c r="F84" s="1">
-        <f t="shared" ref="F84" si="169">F82+F83+G82</f>
+        <f t="shared" ref="F84" si="152">F82+F83+G82</f>
         <v>2</v>
       </c>
       <c r="G84" s="1">
-        <f t="shared" ref="G84" si="170">G82+G83+H82</f>
+        <f t="shared" ref="G84" si="153">G82+G83+H82</f>
         <v>2</v>
       </c>
       <c r="H84" s="1">
-        <f t="shared" ref="H84" si="171">H82+H83+I82</f>
+        <f t="shared" ref="H84" si="154">H82+H83+I82</f>
         <v>2</v>
       </c>
       <c r="I84" s="1">
-        <f t="shared" ref="I84" si="172">I82+I83+J82</f>
+        <f t="shared" ref="I84" si="155">I82+I83+J82</f>
         <v>2</v>
       </c>
       <c r="J84" s="1">
-        <f t="shared" ref="J84" si="173">J82+J83+K82</f>
+        <f t="shared" ref="J84" si="156">J82+J83+K82</f>
         <v>2</v>
       </c>
       <c r="K84" s="1">
-        <f t="shared" ref="K84" si="174">K82+K83+L82</f>
+        <f t="shared" ref="K84" si="157">K82+K83+L82</f>
         <v>1</v>
       </c>
       <c r="L84" s="1">
-        <f t="shared" ref="L84" si="175">L82+L83+M82</f>
+        <f t="shared" ref="L84" si="158">L82+L83+M82</f>
         <v>3</v>
       </c>
       <c r="M84" s="1">
-        <f t="shared" ref="M84" si="176">M82+M83+N82</f>
+        <f t="shared" ref="M84" si="159">M82+M83+N82</f>
         <v>1</v>
       </c>
       <c r="N84" s="1">
-        <f t="shared" ref="N84" si="177">N82+N83+O82</f>
+        <f t="shared" ref="N84" si="160">N82+N83+O82</f>
         <v>1</v>
       </c>
       <c r="O84" s="1">
-        <f t="shared" ref="O84" si="178">O82+O83+P82</f>
+        <f t="shared" ref="O84" si="161">O82+O83+P82</f>
         <v>1</v>
       </c>
       <c r="P84" s="1">
-        <f t="shared" ref="P84" si="179">P82+P83+Q82</f>
+        <f t="shared" ref="P84" si="162">P82+P83+Q82</f>
         <v>1</v>
       </c>
       <c r="Q84" s="1">
-        <f t="shared" ref="Q84" si="180">Q82+Q83+R82</f>
+        <f t="shared" ref="Q84" si="163">Q82+Q83+R82</f>
         <v>1</v>
       </c>
       <c r="R84" s="1">
-        <f t="shared" ref="R84" si="181">R82+R83+S82</f>
+        <f t="shared" ref="R84" si="164">R82+R83+S82</f>
         <v>1</v>
       </c>
       <c r="S84" s="1">
-        <f t="shared" ref="S84" si="182">S82+S83+T82</f>
+        <f t="shared" ref="S84" si="165">S82+S83+T82</f>
         <v>2</v>
       </c>
       <c r="T84" s="1">
-        <f t="shared" ref="T84" si="183">T82+T83+U82</f>
+        <f t="shared" ref="T84" si="166">T82+T83+U82</f>
         <v>1</v>
       </c>
     </row>
@@ -7661,79 +7657,79 @@
         <v>0</v>
       </c>
       <c r="B85">
-        <f t="shared" ref="B85" si="184">QUOTIENT(B84,3)</f>
+        <f t="shared" ref="B85" si="167">QUOTIENT(B84,3)</f>
         <v>0</v>
       </c>
       <c r="C85">
-        <f t="shared" ref="C85" si="185">QUOTIENT(C84,3)</f>
+        <f t="shared" ref="C85" si="168">QUOTIENT(C84,3)</f>
         <v>0</v>
       </c>
       <c r="D85">
-        <f t="shared" ref="D85" si="186">QUOTIENT(D84,3)</f>
+        <f t="shared" ref="D85" si="169">QUOTIENT(D84,3)</f>
         <v>0</v>
       </c>
       <c r="E85">
-        <f t="shared" ref="E85" si="187">QUOTIENT(E84,3)</f>
+        <f t="shared" ref="E85" si="170">QUOTIENT(E84,3)</f>
         <v>0</v>
       </c>
       <c r="F85">
-        <f t="shared" ref="F85" si="188">QUOTIENT(F84,3)</f>
+        <f t="shared" ref="F85" si="171">QUOTIENT(F84,3)</f>
         <v>0</v>
       </c>
       <c r="G85">
-        <f t="shared" ref="G85" si="189">QUOTIENT(G84,3)</f>
+        <f t="shared" ref="G85" si="172">QUOTIENT(G84,3)</f>
         <v>0</v>
       </c>
       <c r="H85">
-        <f t="shared" ref="H85" si="190">QUOTIENT(H84,3)</f>
+        <f t="shared" ref="H85" si="173">QUOTIENT(H84,3)</f>
         <v>0</v>
       </c>
       <c r="I85">
-        <f t="shared" ref="I85" si="191">QUOTIENT(I84,3)</f>
+        <f t="shared" ref="I85" si="174">QUOTIENT(I84,3)</f>
         <v>0</v>
       </c>
       <c r="J85">
-        <f t="shared" ref="J85" si="192">QUOTIENT(J84,3)</f>
+        <f t="shared" ref="J85" si="175">QUOTIENT(J84,3)</f>
         <v>0</v>
       </c>
       <c r="K85">
-        <f t="shared" ref="K85" si="193">QUOTIENT(K84,3)</f>
+        <f t="shared" ref="K85" si="176">QUOTIENT(K84,3)</f>
         <v>0</v>
       </c>
       <c r="L85">
-        <f t="shared" ref="L85" si="194">QUOTIENT(L84,3)</f>
+        <f t="shared" ref="L85" si="177">QUOTIENT(L84,3)</f>
         <v>1</v>
       </c>
       <c r="M85">
-        <f t="shared" ref="M85" si="195">QUOTIENT(M84,3)</f>
+        <f t="shared" ref="M85" si="178">QUOTIENT(M84,3)</f>
         <v>0</v>
       </c>
       <c r="N85">
-        <f t="shared" ref="N85" si="196">QUOTIENT(N84,3)</f>
+        <f t="shared" ref="N85" si="179">QUOTIENT(N84,3)</f>
         <v>0</v>
       </c>
       <c r="O85">
-        <f t="shared" ref="O85" si="197">QUOTIENT(O84,3)</f>
+        <f t="shared" ref="O85" si="180">QUOTIENT(O84,3)</f>
         <v>0</v>
       </c>
       <c r="P85">
-        <f t="shared" ref="P85" si="198">QUOTIENT(P84,3)</f>
+        <f t="shared" ref="P85" si="181">QUOTIENT(P84,3)</f>
         <v>0</v>
       </c>
       <c r="Q85">
-        <f t="shared" ref="Q85" si="199">QUOTIENT(Q84,3)</f>
+        <f t="shared" ref="Q85" si="182">QUOTIENT(Q84,3)</f>
         <v>0</v>
       </c>
       <c r="R85">
-        <f t="shared" ref="R85" si="200">QUOTIENT(R84,3)</f>
+        <f t="shared" ref="R85" si="183">QUOTIENT(R84,3)</f>
         <v>0</v>
       </c>
       <c r="S85">
-        <f t="shared" ref="S85" si="201">QUOTIENT(S84,3)</f>
+        <f t="shared" ref="S85" si="184">QUOTIENT(S84,3)</f>
         <v>0</v>
       </c>
       <c r="T85">
-        <f t="shared" ref="T85" si="202">QUOTIENT(T84,3)</f>
+        <f t="shared" ref="T85" si="185">QUOTIENT(T84,3)</f>
         <v>0</v>
       </c>
       <c r="V85">
@@ -7747,79 +7743,79 @@
         <v>0</v>
       </c>
       <c r="B86">
-        <f t="shared" ref="B86:T86" si="203">MOD(B84,3)</f>
+        <f t="shared" ref="B86:T86" si="186">MOD(B84,3)</f>
         <v>0</v>
       </c>
       <c r="C86">
-        <f t="shared" si="203"/>
+        <f t="shared" si="186"/>
         <v>0</v>
       </c>
       <c r="D86">
-        <f t="shared" si="203"/>
+        <f t="shared" si="186"/>
         <v>0</v>
       </c>
       <c r="E86">
-        <f t="shared" si="203"/>
+        <f t="shared" si="186"/>
         <v>0</v>
       </c>
       <c r="F86">
-        <f t="shared" si="203"/>
+        <f t="shared" si="186"/>
         <v>2</v>
       </c>
       <c r="G86">
-        <f t="shared" si="203"/>
+        <f t="shared" si="186"/>
         <v>2</v>
       </c>
       <c r="H86">
-        <f t="shared" si="203"/>
+        <f t="shared" si="186"/>
         <v>2</v>
       </c>
       <c r="I86">
-        <f t="shared" si="203"/>
+        <f t="shared" si="186"/>
         <v>2</v>
       </c>
       <c r="J86">
-        <f t="shared" si="203"/>
+        <f t="shared" si="186"/>
         <v>2</v>
       </c>
       <c r="K86">
-        <f t="shared" si="203"/>
+        <f t="shared" si="186"/>
         <v>1</v>
       </c>
       <c r="L86">
-        <f t="shared" si="203"/>
+        <f t="shared" si="186"/>
         <v>0</v>
       </c>
       <c r="M86">
-        <f t="shared" si="203"/>
+        <f t="shared" si="186"/>
         <v>1</v>
       </c>
       <c r="N86">
-        <f t="shared" si="203"/>
+        <f t="shared" si="186"/>
         <v>1</v>
       </c>
       <c r="O86">
-        <f t="shared" si="203"/>
+        <f t="shared" si="186"/>
         <v>1</v>
       </c>
       <c r="P86">
-        <f t="shared" si="203"/>
+        <f t="shared" si="186"/>
         <v>1</v>
       </c>
       <c r="Q86">
-        <f t="shared" si="203"/>
+        <f t="shared" si="186"/>
         <v>1</v>
       </c>
       <c r="R86">
-        <f t="shared" si="203"/>
+        <f t="shared" si="186"/>
         <v>1</v>
       </c>
       <c r="S86">
-        <f t="shared" si="203"/>
+        <f t="shared" si="186"/>
         <v>2</v>
       </c>
       <c r="T86">
-        <f t="shared" si="203"/>
+        <f t="shared" si="186"/>
         <v>1</v>
       </c>
     </row>
@@ -7829,79 +7825,79 @@
         <v>0</v>
       </c>
       <c r="B87" s="1">
-        <f t="shared" ref="B87" si="204">B85+B86+C85</f>
+        <f t="shared" ref="B87" si="187">B85+B86+C85</f>
         <v>0</v>
       </c>
       <c r="C87" s="1">
-        <f t="shared" ref="C87" si="205">C85+C86+D85</f>
+        <f t="shared" ref="C87" si="188">C85+C86+D85</f>
         <v>0</v>
       </c>
       <c r="D87" s="1">
-        <f t="shared" ref="D87" si="206">D85+D86+E85</f>
+        <f t="shared" ref="D87" si="189">D85+D86+E85</f>
         <v>0</v>
       </c>
       <c r="E87" s="1">
-        <f t="shared" ref="E87" si="207">E85+E86+F85</f>
+        <f t="shared" ref="E87" si="190">E85+E86+F85</f>
         <v>0</v>
       </c>
       <c r="F87" s="1">
-        <f t="shared" ref="F87" si="208">F85+F86+G85</f>
+        <f t="shared" ref="F87" si="191">F85+F86+G85</f>
         <v>2</v>
       </c>
       <c r="G87" s="1">
-        <f t="shared" ref="G87" si="209">G85+G86+H85</f>
+        <f t="shared" ref="G87" si="192">G85+G86+H85</f>
         <v>2</v>
       </c>
       <c r="H87" s="1">
-        <f t="shared" ref="H87" si="210">H85+H86+I85</f>
+        <f t="shared" ref="H87" si="193">H85+H86+I85</f>
         <v>2</v>
       </c>
       <c r="I87" s="1">
-        <f t="shared" ref="I87" si="211">I85+I86+J85</f>
+        <f t="shared" ref="I87" si="194">I85+I86+J85</f>
         <v>2</v>
       </c>
       <c r="J87" s="1">
-        <f t="shared" ref="J87" si="212">J85+J86+K85</f>
+        <f t="shared" ref="J87" si="195">J85+J86+K85</f>
         <v>2</v>
       </c>
       <c r="K87" s="1">
-        <f t="shared" ref="K87" si="213">K85+K86+L85</f>
+        <f t="shared" ref="K87" si="196">K85+K86+L85</f>
         <v>2</v>
       </c>
       <c r="L87" s="1">
-        <f t="shared" ref="L87" si="214">L85+L86+M85</f>
+        <f t="shared" ref="L87" si="197">L85+L86+M85</f>
         <v>1</v>
       </c>
       <c r="M87" s="1">
-        <f t="shared" ref="M87" si="215">M85+M86+N85</f>
+        <f t="shared" ref="M87" si="198">M85+M86+N85</f>
         <v>1</v>
       </c>
       <c r="N87" s="1">
-        <f t="shared" ref="N87" si="216">N85+N86+O85</f>
+        <f t="shared" ref="N87" si="199">N85+N86+O85</f>
         <v>1</v>
       </c>
       <c r="O87" s="1">
-        <f t="shared" ref="O87" si="217">O85+O86+P85</f>
+        <f t="shared" ref="O87" si="200">O85+O86+P85</f>
         <v>1</v>
       </c>
       <c r="P87" s="1">
-        <f t="shared" ref="P87" si="218">P85+P86+Q85</f>
+        <f t="shared" ref="P87" si="201">P85+P86+Q85</f>
         <v>1</v>
       </c>
       <c r="Q87" s="1">
-        <f t="shared" ref="Q87" si="219">Q85+Q86+R85</f>
+        <f t="shared" ref="Q87" si="202">Q85+Q86+R85</f>
         <v>1</v>
       </c>
       <c r="R87" s="1">
-        <f t="shared" ref="R87" si="220">R85+R86+S85</f>
+        <f t="shared" ref="R87" si="203">R85+R86+S85</f>
         <v>1</v>
       </c>
       <c r="S87" s="1">
-        <f t="shared" ref="S87" si="221">S85+S86+T85</f>
+        <f t="shared" ref="S87" si="204">S85+S86+T85</f>
         <v>2</v>
       </c>
       <c r="T87" s="1">
-        <f t="shared" ref="T87" si="222">T85+T86+U85</f>
+        <f t="shared" ref="T87" si="205">T85+T86+U85</f>
         <v>1</v>
       </c>
       <c r="V87" s="1">
@@ -7977,79 +7973,79 @@
         <v>0</v>
       </c>
       <c r="C93">
-        <f t="shared" ref="C93:U93" si="223">QUOTIENT(C92,5)</f>
+        <f t="shared" ref="C93:U93" si="206">QUOTIENT(C92,5)</f>
         <v>0</v>
       </c>
       <c r="D93">
-        <f t="shared" si="223"/>
+        <f t="shared" si="206"/>
         <v>0</v>
       </c>
       <c r="E93">
-        <f t="shared" si="223"/>
+        <f t="shared" si="206"/>
         <v>0</v>
       </c>
       <c r="F93">
-        <f t="shared" si="223"/>
+        <f t="shared" si="206"/>
         <v>0</v>
       </c>
       <c r="G93">
-        <f t="shared" si="223"/>
+        <f t="shared" si="206"/>
         <v>0</v>
       </c>
       <c r="H93">
-        <f t="shared" si="223"/>
+        <f t="shared" si="206"/>
         <v>0</v>
       </c>
       <c r="I93">
-        <f t="shared" si="223"/>
+        <f t="shared" si="206"/>
         <v>0</v>
       </c>
       <c r="J93">
-        <f t="shared" si="223"/>
+        <f t="shared" si="206"/>
         <v>0</v>
       </c>
       <c r="K93">
-        <f t="shared" si="223"/>
+        <f t="shared" si="206"/>
         <v>1</v>
       </c>
       <c r="L93">
-        <f t="shared" si="223"/>
+        <f t="shared" si="206"/>
         <v>1</v>
       </c>
       <c r="M93">
-        <f t="shared" si="223"/>
+        <f t="shared" si="206"/>
         <v>1</v>
       </c>
       <c r="N93">
-        <f t="shared" si="223"/>
+        <f t="shared" si="206"/>
         <v>1</v>
       </c>
       <c r="O93">
-        <f t="shared" si="223"/>
+        <f t="shared" si="206"/>
         <v>1</v>
       </c>
       <c r="P93">
-        <f t="shared" si="223"/>
+        <f t="shared" si="206"/>
         <v>1</v>
       </c>
       <c r="Q93">
-        <f t="shared" si="223"/>
+        <f t="shared" si="206"/>
         <v>1</v>
       </c>
       <c r="R93">
-        <f t="shared" si="223"/>
+        <f t="shared" si="206"/>
         <v>0</v>
       </c>
       <c r="S93">
-        <f t="shared" si="223"/>
+        <f t="shared" si="206"/>
         <v>0</v>
       </c>
       <c r="T93">
-        <f t="shared" si="223"/>
+        <f t="shared" si="206"/>
         <v>0</v>
       </c>
       <c r="U93">
-        <f t="shared" si="223"/>
+        <f t="shared" si="206"/>
         <v>0</v>
       </c>
     </row>
@@ -8059,79 +8055,79 @@
         <v>0</v>
       </c>
       <c r="C94">
-        <f t="shared" ref="C94:U94" si="224">MOD(C92,5)</f>
+        <f t="shared" ref="C94:U94" si="207">MOD(C92,5)</f>
         <v>0</v>
       </c>
       <c r="D94">
-        <f t="shared" si="224"/>
+        <f t="shared" si="207"/>
         <v>0</v>
       </c>
       <c r="E94">
-        <f t="shared" si="224"/>
+        <f t="shared" si="207"/>
         <v>0</v>
       </c>
       <c r="F94">
-        <f t="shared" si="224"/>
+        <f t="shared" si="207"/>
         <v>0</v>
       </c>
       <c r="G94">
-        <f t="shared" si="224"/>
+        <f t="shared" si="207"/>
         <v>1</v>
       </c>
       <c r="H94">
-        <f t="shared" si="224"/>
+        <f t="shared" si="207"/>
         <v>2</v>
       </c>
       <c r="I94">
-        <f t="shared" si="224"/>
+        <f t="shared" si="207"/>
         <v>3</v>
       </c>
       <c r="J94">
-        <f t="shared" si="224"/>
+        <f t="shared" si="207"/>
         <v>4</v>
       </c>
       <c r="K94">
-        <f t="shared" si="224"/>
+        <f t="shared" si="207"/>
         <v>0</v>
       </c>
       <c r="L94">
-        <f t="shared" si="224"/>
+        <f t="shared" si="207"/>
         <v>1</v>
       </c>
       <c r="M94">
-        <f t="shared" si="224"/>
+        <f t="shared" si="207"/>
         <v>2</v>
       </c>
       <c r="N94">
-        <f t="shared" si="224"/>
+        <f t="shared" si="207"/>
         <v>3</v>
       </c>
       <c r="O94">
-        <f t="shared" si="224"/>
+        <f t="shared" si="207"/>
         <v>2</v>
       </c>
       <c r="P94">
-        <f t="shared" si="224"/>
+        <f t="shared" si="207"/>
         <v>1</v>
       </c>
       <c r="Q94">
-        <f t="shared" si="224"/>
+        <f t="shared" si="207"/>
         <v>0</v>
       </c>
       <c r="R94">
-        <f t="shared" si="224"/>
+        <f t="shared" si="207"/>
         <v>4</v>
       </c>
       <c r="S94">
-        <f t="shared" si="224"/>
+        <f t="shared" si="207"/>
         <v>3</v>
       </c>
       <c r="T94">
-        <f t="shared" si="224"/>
+        <f t="shared" si="207"/>
         <v>2</v>
       </c>
       <c r="U94">
-        <f t="shared" si="224"/>
+        <f t="shared" si="207"/>
         <v>1</v>
       </c>
     </row>
@@ -8141,79 +8137,79 @@
         <v>0</v>
       </c>
       <c r="C95" s="1">
-        <f t="shared" ref="C95:U95" si="225">C93+C94+D93+E93</f>
+        <f t="shared" ref="C95:U95" si="208">C93+C94+D93+E93</f>
         <v>0</v>
       </c>
       <c r="D95" s="1">
-        <f t="shared" si="225"/>
+        <f t="shared" si="208"/>
         <v>0</v>
       </c>
       <c r="E95" s="1">
-        <f t="shared" si="225"/>
+        <f t="shared" si="208"/>
         <v>0</v>
       </c>
       <c r="F95" s="1">
-        <f t="shared" si="225"/>
+        <f t="shared" si="208"/>
         <v>0</v>
       </c>
       <c r="G95" s="1">
-        <f t="shared" si="225"/>
+        <f t="shared" si="208"/>
         <v>1</v>
       </c>
       <c r="H95" s="1">
-        <f t="shared" si="225"/>
+        <f t="shared" si="208"/>
         <v>2</v>
       </c>
       <c r="I95" s="1">
-        <f t="shared" si="225"/>
+        <f t="shared" si="208"/>
         <v>4</v>
       </c>
       <c r="J95" s="1">
-        <f t="shared" si="225"/>
+        <f t="shared" si="208"/>
         <v>6</v>
       </c>
       <c r="K95" s="1">
-        <f t="shared" si="225"/>
+        <f t="shared" si="208"/>
         <v>3</v>
       </c>
       <c r="L95" s="1">
-        <f t="shared" si="225"/>
+        <f t="shared" si="208"/>
         <v>4</v>
       </c>
       <c r="M95" s="1">
-        <f t="shared" si="225"/>
+        <f t="shared" si="208"/>
         <v>5</v>
       </c>
       <c r="N95" s="1">
-        <f t="shared" si="225"/>
+        <f t="shared" si="208"/>
         <v>6</v>
       </c>
       <c r="O95" s="1">
-        <f t="shared" si="225"/>
+        <f t="shared" si="208"/>
         <v>5</v>
       </c>
       <c r="P95" s="1">
-        <f t="shared" si="225"/>
+        <f t="shared" si="208"/>
         <v>3</v>
       </c>
       <c r="Q95" s="1">
-        <f t="shared" si="225"/>
+        <f t="shared" si="208"/>
         <v>1</v>
       </c>
       <c r="R95" s="1">
-        <f t="shared" si="225"/>
+        <f t="shared" si="208"/>
         <v>4</v>
       </c>
       <c r="S95" s="1">
-        <f t="shared" si="225"/>
+        <f t="shared" si="208"/>
         <v>3</v>
       </c>
       <c r="T95" s="1">
-        <f t="shared" si="225"/>
+        <f t="shared" si="208"/>
         <v>2</v>
       </c>
       <c r="U95" s="1">
-        <f t="shared" si="225"/>
+        <f t="shared" si="208"/>
         <v>1</v>
       </c>
     </row>
